--- a/Test results/Hasil Pengujian Waiting Time.xlsx
+++ b/Test results/Hasil Pengujian Waiting Time.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\gldmdp\Test results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Yorozuya\Documents\Matkul smt 7\TA2\gldmdp\Test results\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -279,8 +280,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000000"/>
+    <numFmt numFmtId="165" formatCode="0.00000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -308,7 +310,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -423,29 +425,59 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -458,16 +490,43 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -476,9 +535,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -566,7 +627,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="id-ID"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -620,7 +681,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="id-ID"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -662,12 +723,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$44</c:f>
+              <c:f>Sheet1!$C$64</c:f>
               <c:numCache>
-                <c:formatCode>0.000000</c:formatCode>
+                <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>13.806935599999999</c:v>
+                  <c:v>14.389538666666665</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -716,7 +777,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="id-ID"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -758,12 +819,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$44</c:f>
+              <c:f>Sheet1!$D$64</c:f>
               <c:numCache>
-                <c:formatCode>0.000000</c:formatCode>
+                <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>37.541284699999991</c:v>
+                  <c:v>38.982789499999988</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -812,7 +873,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="id-ID"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -854,12 +915,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$44</c:f>
+              <c:f>Sheet1!$E$64</c:f>
               <c:numCache>
-                <c:formatCode>0.000000</c:formatCode>
+                <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>6.0094723800000001</c:v>
+                  <c:v>6.0526774533333336</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -908,7 +969,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="id-ID"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -950,12 +1011,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$44</c:f>
+              <c:f>Sheet1!$F$64</c:f>
               <c:numCache>
-                <c:formatCode>0.000000</c:formatCode>
+                <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>23.457414899999996</c:v>
+                  <c:v>23.429515866666666</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -972,11 +1033,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="2082351792"/>
-        <c:axId val="2082355056"/>
+        <c:axId val="181295120"/>
+        <c:axId val="181295680"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2082351792"/>
+        <c:axId val="181295120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1016,10 +1077,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="id-ID"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2082355056"/>
+        <c:crossAx val="181295680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1027,7 +1088,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2082355056"/>
+        <c:axId val="181295680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1047,7 +1108,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.000000" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1075,10 +1136,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="id-ID"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2082351792"/>
+        <c:crossAx val="181295120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1118,7 +1179,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="id-ID"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1148,7 +1209,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="id-ID"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1229,7 +1290,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="id-ID"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1291,7 +1352,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="id-ID"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -1333,12 +1394,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$J$44</c:f>
+              <c:f>Sheet1!$J$64</c:f>
               <c:numCache>
-                <c:formatCode>0.000000</c:formatCode>
+                <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>22.306570099999995</c:v>
+                  <c:v>23.239544333333335</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1395,7 +1456,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="id-ID"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -1437,12 +1498,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$K$44</c:f>
+              <c:f>Sheet1!$K$64</c:f>
               <c:numCache>
-                <c:formatCode>0.000000</c:formatCode>
+                <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>60.733214599999997</c:v>
+                  <c:v>63.969915600000007</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1499,7 +1560,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="id-ID"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -1541,12 +1602,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$L$44</c:f>
+              <c:f>Sheet1!$L$64</c:f>
               <c:numCache>
-                <c:formatCode>0.000000</c:formatCode>
+                <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>9.8517682999999998</c:v>
+                  <c:v>9.9088259833333314</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1603,7 +1664,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="id-ID"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -1645,12 +1706,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$M$44</c:f>
+              <c:f>Sheet1!$M$64</c:f>
               <c:numCache>
-                <c:formatCode>0.000000</c:formatCode>
+                <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>37.573194600000008</c:v>
+                  <c:v>37.569765633333326</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1667,11 +1728,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1970859904"/>
-        <c:axId val="1970861536"/>
+        <c:axId val="182498608"/>
+        <c:axId val="182499168"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1970859904"/>
+        <c:axId val="182498608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1711,10 +1772,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="id-ID"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1970861536"/>
+        <c:crossAx val="182499168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1722,7 +1783,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1970861536"/>
+        <c:axId val="182499168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1742,7 +1803,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.000000" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1770,10 +1831,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="id-ID"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1970859904"/>
+        <c:crossAx val="182498608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1813,7 +1874,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="id-ID"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1843,7 +1904,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="id-ID"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1925,7 +1986,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="id-ID"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1941,7 +2002,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$49</c:f>
+              <c:f>Sheet1!$C$70</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1987,7 +2048,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="id-ID"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -2029,12 +2090,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$60</c:f>
+              <c:f>Sheet1!$C$101</c:f>
               <c:numCache>
                 <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>84.711330500000003</c:v>
+                  <c:v>85.010294233333354</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2045,7 +2106,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$49</c:f>
+              <c:f>Sheet1!$D$70</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2091,7 +2152,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="id-ID"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -2133,12 +2194,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$60</c:f>
+              <c:f>Sheet1!$D$101</c:f>
               <c:numCache>
                 <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>108.4543011</c:v>
+                  <c:v>106.19462586666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2149,7 +2210,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$49</c:f>
+              <c:f>Sheet1!$E$70</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2195,7 +2256,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="id-ID"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -2237,12 +2298,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$60</c:f>
+              <c:f>Sheet1!$E$101</c:f>
               <c:numCache>
                 <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>49.41428770000001</c:v>
+                  <c:v>48.860209866666672</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2253,7 +2314,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$49</c:f>
+              <c:f>Sheet1!$F$70</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2299,7 +2360,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="id-ID"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -2341,12 +2402,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$60</c:f>
+              <c:f>Sheet1!$F$101</c:f>
               <c:numCache>
                 <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>41.439874000000003</c:v>
+                  <c:v>40.916587266666674</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2363,11 +2424,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1970863712"/>
-        <c:axId val="1970866976"/>
+        <c:axId val="182503648"/>
+        <c:axId val="182504208"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1970863712"/>
+        <c:axId val="182503648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2407,10 +2468,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="id-ID"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1970866976"/>
+        <c:crossAx val="182504208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2418,7 +2479,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1970866976"/>
+        <c:axId val="182504208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2466,10 +2527,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="id-ID"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1970863712"/>
+        <c:crossAx val="182503648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2509,7 +2570,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="id-ID"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2539,7 +2600,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="id-ID"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2621,7 +2682,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="id-ID"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2637,7 +2698,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$J$49</c:f>
+              <c:f>Sheet1!$J$70</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2683,7 +2744,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="id-ID"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -2725,12 +2786,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$J$60</c:f>
+              <c:f>Sheet1!$J$101</c:f>
               <c:numCache>
                 <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>311.35968200000002</c:v>
+                  <c:v>312.06754166666661</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2741,7 +2802,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$K$49</c:f>
+              <c:f>Sheet1!$K$70</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2787,7 +2848,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="id-ID"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -2829,12 +2890,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$K$60</c:f>
+              <c:f>Sheet1!$K$101</c:f>
               <c:numCache>
                 <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>736.48372899999993</c:v>
+                  <c:v>724.35037799999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2845,7 +2906,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$L$49</c:f>
+              <c:f>Sheet1!$L$70</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2891,7 +2952,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="id-ID"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -2933,12 +2994,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$L$60</c:f>
+              <c:f>Sheet1!$L$101</c:f>
               <c:numCache>
                 <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>159.81681400000002</c:v>
+                  <c:v>151.68852333333334</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2949,7 +3010,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$M$49</c:f>
+              <c:f>Sheet1!$M$70</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2995,7 +3056,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="id-ID"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -3037,12 +3098,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$M$60</c:f>
+              <c:f>Sheet1!$M$101</c:f>
               <c:numCache>
                 <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>119.09325800000002</c:v>
+                  <c:v>123.89772226666669</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3059,11 +3120,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="2127238752"/>
-        <c:axId val="2127227328"/>
+        <c:axId val="182508688"/>
+        <c:axId val="182509248"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2127238752"/>
+        <c:axId val="182508688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3103,10 +3164,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="id-ID"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2127227328"/>
+        <c:crossAx val="182509248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3114,7 +3175,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2127227328"/>
+        <c:axId val="182509248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3162,10 +3223,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="id-ID"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2127238752"/>
+        <c:crossAx val="182508688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3205,7 +3266,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="id-ID"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3235,7 +3296,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="id-ID"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3317,7 +3378,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="id-ID"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3333,7 +3394,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$64</c:f>
+              <c:f>Sheet1!$C$107</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3379,7 +3440,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="id-ID"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -3421,12 +3482,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$75</c:f>
+              <c:f>Sheet1!$C$138</c:f>
               <c:numCache>
                 <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>105.1944872</c:v>
+                  <c:v>104.8950614</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3437,7 +3498,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$64</c:f>
+              <c:f>Sheet1!$D$107</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3483,7 +3544,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="id-ID"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -3525,12 +3586,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$75</c:f>
+              <c:f>Sheet1!$D$138</c:f>
               <c:numCache>
                 <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>109.20178319999999</c:v>
+                  <c:v>108.52719036666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3541,7 +3602,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$64</c:f>
+              <c:f>Sheet1!$E$107</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3587,7 +3648,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="id-ID"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -3629,12 +3690,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$75</c:f>
+              <c:f>Sheet1!$E$138</c:f>
               <c:numCache>
                 <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>43.686909699999994</c:v>
+                  <c:v>44.199893533333331</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3645,7 +3706,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$64</c:f>
+              <c:f>Sheet1!$F$107</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3691,7 +3752,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="id-ID"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -3733,12 +3794,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$75</c:f>
+              <c:f>Sheet1!$F$138</c:f>
               <c:numCache>
                 <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>53.637652899999999</c:v>
+                  <c:v>53.490033199999992</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3755,11 +3816,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="2127239296"/>
-        <c:axId val="2127239840"/>
+        <c:axId val="183525600"/>
+        <c:axId val="183526160"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2127239296"/>
+        <c:axId val="183525600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3799,10 +3860,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="id-ID"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2127239840"/>
+        <c:crossAx val="183526160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3810,7 +3871,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2127239840"/>
+        <c:axId val="183526160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3858,10 +3919,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="id-ID"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2127239296"/>
+        <c:crossAx val="183525600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3901,7 +3962,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="id-ID"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3931,7 +3992,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="id-ID"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3978,7 +4039,15 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="id-ID"/>
-              <a:t>AJWT</a:t>
+              <a:t>A</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>T</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="id-ID"/>
+              <a:t>WT</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="id-ID" baseline="0"/>
@@ -4013,7 +4082,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="id-ID"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4029,7 +4098,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$J$64</c:f>
+              <c:f>Sheet1!$J$107</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4075,7 +4144,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="id-ID"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -4117,12 +4186,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$J$75</c:f>
+              <c:f>Sheet1!$J$138</c:f>
               <c:numCache>
                 <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>857.24946699999998</c:v>
+                  <c:v>851.83438566666678</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4133,7 +4202,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$K$64</c:f>
+              <c:f>Sheet1!$K$107</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4179,7 +4248,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="id-ID"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -4221,12 +4290,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$K$75</c:f>
+              <c:f>Sheet1!$K$138</c:f>
               <c:numCache>
                 <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1173.3449299999997</c:v>
+                  <c:v>1184.7978266666664</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4237,7 +4306,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$L$64</c:f>
+              <c:f>Sheet1!$L$107</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4283,7 +4352,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="id-ID"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -4325,12 +4394,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$L$75</c:f>
+              <c:f>Sheet1!$L$138</c:f>
               <c:numCache>
                 <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>344.90666299999998</c:v>
+                  <c:v>350.66859700000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4341,7 +4410,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$M$64</c:f>
+              <c:f>Sheet1!$M$107</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4387,7 +4456,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="id-ID"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -4429,12 +4498,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$M$75</c:f>
+              <c:f>Sheet1!$M$138</c:f>
               <c:numCache>
                 <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>372.96948300000003</c:v>
+                  <c:v>376.23463133333337</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4451,11 +4520,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="2120412320"/>
-        <c:axId val="2120401440"/>
+        <c:axId val="183530640"/>
+        <c:axId val="183531200"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2120412320"/>
+        <c:axId val="183530640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4495,10 +4564,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="id-ID"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2120401440"/>
+        <c:crossAx val="183531200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4506,7 +4575,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2120401440"/>
+        <c:axId val="183531200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4554,10 +4623,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="id-ID"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2120412320"/>
+        <c:crossAx val="183530640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4597,7 +4666,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="id-ID"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4627,7 +4696,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="id-ID"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7901,15 +7970,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>228599</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>147636</xdr:rowOff>
+      <xdr:colOff>72736</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>182273</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>142874</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>133349</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>593147</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>167986</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7930,16 +7999,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>478848</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>158462</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>109538</xdr:rowOff>
+      <xdr:colOff>396587</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>144175</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7962,16 +8031,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>616403</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>14288</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>530678</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>157163</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7994,16 +8063,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>176213</xdr:rowOff>
+      <xdr:colOff>321128</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>128588</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8027,15 +8096,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>187778</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>80963</xdr:rowOff>
+      <xdr:colOff>102053</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>176213</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8058,16 +8127,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>42863</xdr:rowOff>
+      <xdr:colOff>492578</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>138113</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10175,10 +10244,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B31:M75"/>
+  <dimension ref="B31:O138"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AI48" sqref="AI48"/>
+    <sheetView tabSelected="1" topLeftCell="A103" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K126" sqref="K126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10192,1288 +10261,3212 @@
   </cols>
   <sheetData>
     <row r="31" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="I31" s="1" t="s">
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+      <c r="I31" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
+      <c r="J31" s="26"/>
+      <c r="K31" s="26"/>
+      <c r="L31" s="26"/>
+      <c r="M31" s="26"/>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C32" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="I32" s="7" t="s">
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="I32" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="J32" s="8" t="s">
+      <c r="J32" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="K32" s="9"/>
-      <c r="L32" s="9"/>
-      <c r="M32" s="9"/>
+      <c r="K32" s="25"/>
+      <c r="L32" s="25"/>
+      <c r="M32" s="25"/>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B33" s="7"/>
-      <c r="C33" s="10" t="s">
+      <c r="B33" s="27"/>
+      <c r="C33" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D33" s="11" t="s">
+      <c r="D33" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E33" s="11" t="s">
+      <c r="E33" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F33" s="11" t="s">
+      <c r="F33" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I33" s="7"/>
-      <c r="J33" s="10" t="s">
+      <c r="I33" s="27"/>
+      <c r="J33" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="K33" s="11" t="s">
+      <c r="K33" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="L33" s="11" t="s">
+      <c r="L33" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="M33" s="11" t="s">
+      <c r="M33" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B34" s="4">
+      <c r="B34" s="3">
         <v>1</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C34" s="12">
         <v>14.368061000000001</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D34" s="12">
         <v>39.49136</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E34" s="12">
         <v>5.8997859999999998</v>
       </c>
-      <c r="F34" s="3">
+      <c r="F34" s="13">
         <v>22.934581999999999</v>
       </c>
-      <c r="I34" s="4">
+      <c r="I34" s="3">
         <v>1</v>
       </c>
-      <c r="J34" s="2">
+      <c r="J34" s="1">
         <f>23274597/1000000</f>
         <v>23.274597</v>
       </c>
-      <c r="K34" s="2">
+      <c r="K34" s="1">
         <v>61.908470000000001</v>
       </c>
-      <c r="L34" s="2">
+      <c r="L34" s="1">
         <v>9.6714040000000008</v>
       </c>
-      <c r="M34" s="3">
+      <c r="M34" s="20">
         <v>36.821243000000003</v>
       </c>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B35" s="4">
+      <c r="B35" s="3">
         <v>2</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35" s="16">
         <v>13.60272</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D35" s="12">
         <v>34.972157000000003</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E35" s="12">
         <v>6.1758413000000001</v>
       </c>
-      <c r="F35" s="3">
+      <c r="F35" s="13">
         <v>23.609494999999999</v>
       </c>
-      <c r="I35" s="4">
+      <c r="I35" s="3">
         <v>2</v>
       </c>
-      <c r="J35" s="2">
+      <c r="J35" s="1">
         <v>22.207933000000001</v>
       </c>
-      <c r="K35" s="2">
+      <c r="K35" s="1">
         <v>53.98507</v>
       </c>
-      <c r="L35" s="2">
+      <c r="L35" s="1">
         <v>10.141052999999999</v>
       </c>
-      <c r="M35" s="3">
+      <c r="M35" s="2">
         <v>37.661487999999999</v>
       </c>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B36" s="4">
+      <c r="B36" s="3">
         <v>3</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C36" s="16">
         <v>13.520289999999999</v>
       </c>
-      <c r="D36" s="2">
+      <c r="D36" s="12">
         <v>35.59149</v>
       </c>
-      <c r="E36" s="2">
+      <c r="E36" s="12">
         <v>5.8805556000000001</v>
       </c>
-      <c r="F36" s="3">
+      <c r="F36" s="13">
         <v>23.727910000000001</v>
       </c>
-      <c r="I36" s="4">
+      <c r="I36" s="3">
         <v>3</v>
       </c>
-      <c r="J36" s="2">
+      <c r="J36" s="1">
         <v>21.968039999999998</v>
       </c>
-      <c r="K36" s="2">
+      <c r="K36" s="1">
         <v>57.768523999999999</v>
       </c>
-      <c r="L36" s="2">
+      <c r="L36" s="1">
         <v>9.6896989999999992</v>
       </c>
-      <c r="M36" s="3">
+      <c r="M36" s="2">
         <v>37.723419999999997</v>
       </c>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B37" s="4">
+      <c r="B37" s="3">
         <v>4</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C37" s="16">
         <v>11.866801000000001</v>
       </c>
-      <c r="D37" s="2">
+      <c r="D37" s="12">
         <v>58.856242999999999</v>
       </c>
-      <c r="E37" s="2">
+      <c r="E37" s="12">
         <v>6.0671439999999999</v>
       </c>
-      <c r="F37" s="3">
+      <c r="F37" s="13">
         <v>22.566786</v>
       </c>
-      <c r="I37" s="4">
+      <c r="I37" s="3">
         <v>4</v>
       </c>
-      <c r="J37" s="2">
+      <c r="J37" s="1">
         <v>19.131689999999999</v>
       </c>
-      <c r="K37" s="2">
+      <c r="K37" s="1">
         <v>100.24271400000001</v>
       </c>
-      <c r="L37" s="2">
+      <c r="L37" s="1">
         <v>9.922212</v>
       </c>
-      <c r="M37" s="3">
+      <c r="M37" s="2">
         <v>36.539932</v>
       </c>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B38" s="4">
+      <c r="B38" s="3">
         <v>5</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C38" s="16">
         <v>14.813867999999999</v>
       </c>
-      <c r="D38" s="2">
+      <c r="D38" s="12">
         <v>42.066715000000002</v>
       </c>
-      <c r="E38" s="2">
+      <c r="E38" s="12">
         <v>6.1025524000000004</v>
       </c>
-      <c r="F38" s="3">
+      <c r="F38" s="13">
         <v>23.483726999999998</v>
       </c>
-      <c r="I38" s="4">
+      <c r="I38" s="3">
         <v>5</v>
       </c>
-      <c r="J38" s="2">
+      <c r="J38" s="1">
         <v>23.733581999999998</v>
       </c>
-      <c r="K38" s="2">
+      <c r="K38" s="1">
         <v>69.278750000000002</v>
       </c>
-      <c r="L38" s="2">
+      <c r="L38" s="1">
         <v>9.9896440000000002</v>
       </c>
-      <c r="M38" s="3">
+      <c r="M38" s="2">
         <v>37.723858</v>
       </c>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B39" s="4">
+      <c r="B39" s="3">
         <v>6</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C39" s="16">
         <v>16.904920000000001</v>
       </c>
-      <c r="D39" s="2">
+      <c r="D39" s="12">
         <v>32.586098</v>
       </c>
-      <c r="E39" s="2">
+      <c r="E39" s="12">
         <v>5.9045123999999998</v>
       </c>
-      <c r="F39" s="3">
+      <c r="F39" s="13">
         <v>23.689829</v>
       </c>
-      <c r="I39" s="4">
+      <c r="I39" s="3">
         <v>6</v>
       </c>
-      <c r="J39" s="2">
+      <c r="J39" s="1">
         <v>27.113184</v>
       </c>
-      <c r="K39" s="2">
+      <c r="K39" s="1">
         <v>51.577109999999998</v>
       </c>
-      <c r="L39" s="2">
+      <c r="L39" s="1">
         <v>9.6590109999999996</v>
       </c>
-      <c r="M39" s="3">
+      <c r="M39" s="2">
         <v>37.839188</v>
       </c>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B40" s="4">
+      <c r="B40" s="3">
         <v>7</v>
       </c>
-      <c r="C40" s="2">
+      <c r="C40" s="16">
         <v>14.230169</v>
       </c>
-      <c r="D40" s="2">
+      <c r="D40" s="12">
         <v>35.716749999999998</v>
       </c>
-      <c r="E40" s="2">
+      <c r="E40" s="12">
         <v>6.1019800000000002</v>
       </c>
-      <c r="F40" s="3">
+      <c r="F40" s="13">
         <v>23.536715000000001</v>
       </c>
-      <c r="I40" s="4">
+      <c r="I40" s="3">
         <v>7</v>
       </c>
-      <c r="J40" s="2">
+      <c r="J40" s="1">
         <v>22.991714000000002</v>
       </c>
-      <c r="K40" s="2">
+      <c r="K40" s="1">
         <v>57.709539999999997</v>
       </c>
-      <c r="L40" s="2">
+      <c r="L40" s="1">
         <v>10.011048000000001</v>
       </c>
-      <c r="M40" s="3">
+      <c r="M40" s="2">
         <v>37.892673000000002</v>
       </c>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B41" s="4">
+      <c r="B41" s="3">
         <v>8</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C41" s="16">
         <v>13.704827999999999</v>
       </c>
-      <c r="D41" s="2">
+      <c r="D41" s="12">
         <v>36.193503999999997</v>
       </c>
-      <c r="E41" s="2">
+      <c r="E41" s="12">
         <v>6.030958</v>
       </c>
-      <c r="F41" s="3">
+      <c r="F41" s="13">
         <v>23.606157</v>
       </c>
-      <c r="I41" s="4">
+      <c r="I41" s="3">
         <v>8</v>
       </c>
-      <c r="J41" s="2">
+      <c r="J41" s="1">
         <v>22.028385</v>
       </c>
-      <c r="K41" s="2">
+      <c r="K41" s="1">
         <v>58.232227000000002</v>
       </c>
-      <c r="L41" s="2">
+      <c r="L41" s="1">
         <v>9.9087150000000008</v>
       </c>
-      <c r="M41" s="3">
+      <c r="M41" s="2">
         <v>37.690150000000003</v>
       </c>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B42" s="4">
+      <c r="B42" s="3">
         <v>9</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C42" s="16">
         <v>11.957522000000001</v>
       </c>
-      <c r="D42" s="2">
+      <c r="D42" s="12">
         <v>32.543100000000003</v>
       </c>
-      <c r="E42" s="2">
+      <c r="E42" s="12">
         <v>5.9538136000000002</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F42" s="13">
         <v>24.297478000000002</v>
       </c>
-      <c r="I42" s="4">
+      <c r="I42" s="3">
         <v>9</v>
       </c>
-      <c r="J42" s="2">
+      <c r="J42" s="1">
         <v>19.383355999999999</v>
       </c>
-      <c r="K42" s="2">
+      <c r="K42" s="1">
         <v>53.016094000000002</v>
       </c>
-      <c r="L42" s="2">
+      <c r="L42" s="1">
         <v>9.744885</v>
       </c>
-      <c r="M42" s="3">
+      <c r="M42" s="2">
         <v>38.742663999999998</v>
       </c>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B43" s="4">
+      <c r="B43" s="3">
         <v>10</v>
       </c>
-      <c r="C43" s="2">
+      <c r="C43" s="16">
         <v>13.100177</v>
       </c>
-      <c r="D43" s="2">
+      <c r="D43" s="12">
         <v>27.395430000000001</v>
       </c>
-      <c r="E43" s="2">
+      <c r="E43" s="12">
         <v>5.9775805000000002</v>
       </c>
-      <c r="F43" s="3">
+      <c r="F43" s="13">
         <v>23.121469999999999</v>
       </c>
-      <c r="I43" s="4">
+      <c r="I43" s="3">
         <v>10</v>
       </c>
-      <c r="J43" s="2">
+      <c r="J43" s="1">
         <v>21.233219999999999</v>
       </c>
-      <c r="K43" s="2">
+      <c r="K43" s="1">
         <v>43.613647</v>
       </c>
-      <c r="L43" s="2">
+      <c r="L43" s="1">
         <v>9.7800119999999993</v>
       </c>
-      <c r="M43" s="3">
+      <c r="M43" s="2">
         <v>37.097329999999999</v>
       </c>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B44" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C44" s="5">
-        <f>AVERAGE(C34:C43)</f>
-        <v>13.806935599999999</v>
-      </c>
-      <c r="D44" s="5">
-        <f>AVERAGE(D34:D43)</f>
-        <v>37.541284699999991</v>
-      </c>
-      <c r="E44" s="5">
-        <f>AVERAGE(E34:E43)</f>
-        <v>6.0094723800000001</v>
-      </c>
-      <c r="F44" s="5">
-        <f>AVERAGE(F34:F43)</f>
-        <v>23.457414899999996</v>
-      </c>
-      <c r="I44" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="J44" s="5">
-        <f>AVERAGE(J34:J43)</f>
-        <v>22.306570099999995</v>
-      </c>
-      <c r="K44" s="5">
-        <f>AVERAGE(K34:K43)</f>
-        <v>60.733214599999997</v>
-      </c>
-      <c r="L44" s="5">
-        <f>AVERAGE(L34:L43)</f>
-        <v>9.8517682999999998</v>
-      </c>
-      <c r="M44" s="5">
-        <f>AVERAGE(M34:M43)</f>
-        <v>37.573194600000008</v>
+      <c r="B44" s="3">
+        <v>11</v>
+      </c>
+      <c r="C44" s="16">
+        <v>12.000197</v>
+      </c>
+      <c r="D44" s="12">
+        <v>57.92306</v>
+      </c>
+      <c r="E44" s="12">
+        <v>6.0817885</v>
+      </c>
+      <c r="F44" s="13">
+        <v>23.171006999999999</v>
+      </c>
+      <c r="I44" s="3">
+        <v>11</v>
+      </c>
+      <c r="J44" s="15">
+        <v>19.286708999999998</v>
+      </c>
+      <c r="K44" s="15">
+        <v>101.430954</v>
+      </c>
+      <c r="L44" s="15">
+        <v>9.9772239999999996</v>
+      </c>
+      <c r="M44" s="2">
+        <v>37.349376999999997</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B45" s="3">
+        <v>12</v>
+      </c>
+      <c r="C45" s="16">
+        <v>13.196216</v>
+      </c>
+      <c r="D45" s="12">
+        <v>32.540993</v>
+      </c>
+      <c r="E45" s="12">
+        <v>6.1170144000000004</v>
+      </c>
+      <c r="F45" s="13">
+        <v>23.1099</v>
+      </c>
+      <c r="I45" s="3">
+        <v>12</v>
+      </c>
+      <c r="J45" s="15">
+        <v>21.142994000000002</v>
+      </c>
+      <c r="K45" s="15">
+        <v>52.82085</v>
+      </c>
+      <c r="L45" s="15">
+        <v>9.9408100000000008</v>
+      </c>
+      <c r="M45" s="2">
+        <v>37.185963000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B46" s="3">
+        <v>13</v>
+      </c>
+      <c r="C46" s="16">
+        <v>13.391677</v>
+      </c>
+      <c r="D46" s="12">
+        <v>50.450287000000003</v>
+      </c>
+      <c r="E46" s="12">
+        <v>6.0023274000000004</v>
+      </c>
+      <c r="F46" s="13">
+        <v>23.912293999999999</v>
+      </c>
+      <c r="I46" s="3">
+        <v>13</v>
+      </c>
+      <c r="J46" s="15">
+        <v>21.735806</v>
+      </c>
+      <c r="K46" s="15">
+        <v>82.299530000000004</v>
+      </c>
+      <c r="L46" s="15">
+        <v>9.7274130000000003</v>
+      </c>
+      <c r="M46" s="2">
+        <v>38.015067999999999</v>
       </c>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B47" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-      <c r="I47" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J47" s="6"/>
-      <c r="K47" s="6"/>
-      <c r="L47" s="6"/>
-      <c r="M47" s="6"/>
+      <c r="B47" s="3">
+        <v>14</v>
+      </c>
+      <c r="C47" s="16">
+        <v>15.551613</v>
+      </c>
+      <c r="D47" s="12">
+        <v>34.987568000000003</v>
+      </c>
+      <c r="E47" s="12">
+        <v>6.1270647</v>
+      </c>
+      <c r="F47" s="13">
+        <v>23.905366999999998</v>
+      </c>
+      <c r="I47" s="3">
+        <v>14</v>
+      </c>
+      <c r="J47" s="15">
+        <v>25.114813000000002</v>
+      </c>
+      <c r="K47" s="15">
+        <v>56.648536999999997</v>
+      </c>
+      <c r="L47" s="15">
+        <v>10.051026</v>
+      </c>
+      <c r="M47" s="2">
+        <v>37.99438</v>
+      </c>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B48" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C48" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="D48" s="15"/>
-      <c r="E48" s="15"/>
-      <c r="F48" s="8"/>
-      <c r="I48" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="J48" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="K48" s="15"/>
-      <c r="L48" s="15"/>
-      <c r="M48" s="8"/>
+      <c r="B48" s="3">
+        <v>15</v>
+      </c>
+      <c r="C48" s="16">
+        <v>13.029635000000001</v>
+      </c>
+      <c r="D48" s="12">
+        <v>33.027534000000003</v>
+      </c>
+      <c r="E48" s="12">
+        <v>6.0758080000000003</v>
+      </c>
+      <c r="F48" s="13">
+        <v>23.487159999999999</v>
+      </c>
+      <c r="I48" s="3">
+        <v>15</v>
+      </c>
+      <c r="J48" s="15">
+        <v>21.023619</v>
+      </c>
+      <c r="K48" s="15">
+        <v>52.591816000000001</v>
+      </c>
+      <c r="L48" s="15">
+        <v>9.9890349999999994</v>
+      </c>
+      <c r="M48" s="2">
+        <v>37.880012999999998</v>
+      </c>
     </row>
     <row r="49" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B49" s="16"/>
-      <c r="C49" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D49" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E49" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="F49" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="I49" s="16"/>
-      <c r="J49" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="K49" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="L49" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="M49" s="11" t="s">
-        <v>5</v>
+      <c r="B49" s="3">
+        <v>16</v>
+      </c>
+      <c r="C49" s="16">
+        <v>20.650366000000002</v>
+      </c>
+      <c r="D49" s="12">
+        <v>41.904789999999998</v>
+      </c>
+      <c r="E49" s="12">
+        <v>6.0859804000000004</v>
+      </c>
+      <c r="F49" s="13">
+        <v>22.844263000000002</v>
+      </c>
+      <c r="I49" s="3">
+        <v>16</v>
+      </c>
+      <c r="J49" s="15">
+        <v>33.664425000000001</v>
+      </c>
+      <c r="K49" s="15">
+        <v>66.119169999999997</v>
+      </c>
+      <c r="L49" s="15">
+        <v>9.9666139999999999</v>
+      </c>
+      <c r="M49" s="2">
+        <v>36.813643999999996</v>
       </c>
     </row>
     <row r="50" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B50" s="4">
-        <v>1</v>
-      </c>
-      <c r="C50" s="2">
-        <v>82.370919999999998</v>
-      </c>
-      <c r="D50" s="2">
-        <v>110.87436</v>
-      </c>
-      <c r="E50" s="2">
-        <v>49.104649999999999</v>
-      </c>
-      <c r="F50" s="3">
-        <v>43.558459999999997</v>
-      </c>
-      <c r="I50" s="4">
-        <v>1</v>
-      </c>
-      <c r="J50" s="2">
-        <v>314.29422</v>
-      </c>
-      <c r="K50" s="2">
-        <v>775.82590000000005</v>
-      </c>
-      <c r="L50" s="2">
-        <v>159.51956000000001</v>
-      </c>
-      <c r="M50" s="3">
-        <v>118.48162000000001</v>
+      <c r="B50" s="3">
+        <v>17</v>
+      </c>
+      <c r="C50" s="16">
+        <v>17.603693</v>
+      </c>
+      <c r="D50" s="12">
+        <v>50.465865999999998</v>
+      </c>
+      <c r="E50" s="12">
+        <v>6.2012663000000003</v>
+      </c>
+      <c r="F50" s="13">
+        <v>24.036847999999999</v>
+      </c>
+      <c r="I50" s="3">
+        <v>17</v>
+      </c>
+      <c r="J50" s="15">
+        <v>28.330853000000001</v>
+      </c>
+      <c r="K50" s="15">
+        <v>87.828000000000003</v>
+      </c>
+      <c r="L50" s="15">
+        <v>10.176434499999999</v>
+      </c>
+      <c r="M50" s="2">
+        <v>38.500957</v>
       </c>
     </row>
     <row r="51" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B51" s="4">
-        <v>2</v>
-      </c>
-      <c r="C51" s="2">
-        <v>81.049049999999994</v>
-      </c>
-      <c r="D51" s="2">
-        <v>112.96198</v>
-      </c>
-      <c r="E51" s="2">
-        <v>49.844414</v>
-      </c>
-      <c r="F51" s="3">
-        <v>37.95288</v>
-      </c>
-      <c r="I51" s="4">
-        <v>2</v>
-      </c>
-      <c r="J51" s="2">
-        <v>267.21249999999998</v>
-      </c>
-      <c r="K51" s="2">
-        <v>722.08929999999998</v>
-      </c>
-      <c r="L51" s="2">
-        <v>193.38423</v>
-      </c>
-      <c r="M51" s="3">
-        <v>115.57823</v>
+      <c r="B51" s="3">
+        <v>18</v>
+      </c>
+      <c r="C51" s="16">
+        <v>13.619896000000001</v>
+      </c>
+      <c r="D51" s="12">
+        <v>45.340339999999998</v>
+      </c>
+      <c r="E51" s="12">
+        <v>5.9767795000000001</v>
+      </c>
+      <c r="F51" s="13">
+        <v>23.687553000000001</v>
+      </c>
+      <c r="I51" s="3">
+        <v>18</v>
+      </c>
+      <c r="J51" s="15">
+        <v>22.137899999999998</v>
+      </c>
+      <c r="K51" s="15">
+        <v>74.591309999999993</v>
+      </c>
+      <c r="L51" s="15">
+        <v>9.7691344999999998</v>
+      </c>
+      <c r="M51" s="2">
+        <v>38.124415999999997</v>
       </c>
     </row>
     <row r="52" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B52" s="4">
-        <v>3</v>
-      </c>
-      <c r="C52" s="2">
-        <v>84.020870000000002</v>
-      </c>
-      <c r="D52" s="2">
-        <v>110.90406</v>
-      </c>
-      <c r="E52" s="2">
-        <v>46.669690000000003</v>
-      </c>
-      <c r="F52" s="3">
-        <v>37.643079999999998</v>
-      </c>
-      <c r="I52" s="4">
-        <v>3</v>
-      </c>
-      <c r="J52" s="2">
-        <v>321.90987999999999</v>
-      </c>
-      <c r="K52" s="2">
-        <v>674.42913999999996</v>
-      </c>
-      <c r="L52" s="2">
-        <v>142.82886999999999</v>
-      </c>
-      <c r="M52" s="3">
-        <v>112.08981</v>
+      <c r="B52" s="3">
+        <v>19</v>
+      </c>
+      <c r="C52" s="16">
+        <v>12.551228999999999</v>
+      </c>
+      <c r="D52" s="12">
+        <v>59.954258000000003</v>
+      </c>
+      <c r="E52" s="12">
+        <v>5.8761619999999999</v>
+      </c>
+      <c r="F52" s="13">
+        <v>23.451744000000001</v>
+      </c>
+      <c r="I52" s="3">
+        <v>19</v>
+      </c>
+      <c r="J52" s="15">
+        <v>20.373101999999999</v>
+      </c>
+      <c r="K52" s="15">
+        <v>112.72542</v>
+      </c>
+      <c r="L52" s="15">
+        <v>9.623011</v>
+      </c>
+      <c r="M52" s="2">
+        <v>37.669581999999998</v>
       </c>
     </row>
     <row r="53" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B53" s="4">
-        <v>4</v>
-      </c>
-      <c r="C53" s="2">
-        <v>86.487979999999993</v>
-      </c>
-      <c r="D53" s="2">
-        <v>120.54125999999999</v>
-      </c>
-      <c r="E53" s="2">
-        <v>50.253193000000003</v>
-      </c>
-      <c r="F53" s="3">
-        <v>38.272669999999998</v>
-      </c>
-      <c r="I53" s="4">
-        <v>4</v>
-      </c>
-      <c r="J53" s="2">
-        <v>310.41012999999998</v>
-      </c>
-      <c r="K53" s="2">
-        <v>815.84343999999999</v>
-      </c>
-      <c r="L53" s="2">
-        <v>151.30996999999999</v>
-      </c>
-      <c r="M53" s="3">
-        <v>118.45226</v>
+      <c r="B53" s="3">
+        <v>20</v>
+      </c>
+      <c r="C53" s="16">
+        <v>14.016102</v>
+      </c>
+      <c r="D53" s="12">
+        <v>37.887977999999997</v>
+      </c>
+      <c r="E53" s="12">
+        <v>6.147856</v>
+      </c>
+      <c r="F53" s="13">
+        <v>23.083932999999998</v>
+      </c>
+      <c r="I53" s="3">
+        <v>20</v>
+      </c>
+      <c r="J53" s="15">
+        <v>22.477287</v>
+      </c>
+      <c r="K53" s="15">
+        <v>61.808453</v>
+      </c>
+      <c r="L53" s="15">
+        <v>10.070373</v>
+      </c>
+      <c r="M53" s="2">
+        <v>36.893450000000001</v>
       </c>
     </row>
     <row r="54" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B54" s="4">
-        <v>5</v>
-      </c>
-      <c r="C54" s="2">
-        <v>83.067670000000007</v>
-      </c>
-      <c r="D54" s="2">
-        <v>108.934586</v>
-      </c>
-      <c r="E54" s="2">
-        <v>51.48339</v>
-      </c>
-      <c r="F54" s="3">
-        <v>41.908656999999998</v>
-      </c>
-      <c r="I54" s="4">
-        <v>5</v>
-      </c>
-      <c r="J54" s="2">
-        <v>234.35341</v>
-      </c>
-      <c r="K54" s="2">
-        <v>729.1943</v>
-      </c>
-      <c r="L54" s="2">
-        <v>181.49991</v>
-      </c>
-      <c r="M54" s="3">
-        <v>96.064419999999998</v>
+      <c r="B54" s="3">
+        <v>21</v>
+      </c>
+      <c r="C54" s="16">
+        <v>14.074657</v>
+      </c>
+      <c r="D54" s="12">
+        <v>44.806502999999999</v>
+      </c>
+      <c r="E54" s="12">
+        <v>6.1035184999999998</v>
+      </c>
+      <c r="F54" s="13">
+        <v>23.132898000000001</v>
+      </c>
+      <c r="I54" s="3">
+        <v>21</v>
+      </c>
+      <c r="J54" s="15">
+        <v>22.632373999999999</v>
+      </c>
+      <c r="K54" s="15">
+        <v>68.877399999999994</v>
+      </c>
+      <c r="L54" s="15">
+        <v>9.9542889999999993</v>
+      </c>
+      <c r="M54" s="2">
+        <v>37.332299999999996</v>
       </c>
     </row>
     <row r="55" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B55" s="4">
-        <v>6</v>
-      </c>
-      <c r="C55" s="2">
-        <v>85.267120000000006</v>
-      </c>
-      <c r="D55" s="2">
-        <v>104.15709</v>
-      </c>
-      <c r="E55" s="2">
-        <v>50.432022000000003</v>
-      </c>
-      <c r="F55" s="3">
-        <v>42.463977999999997</v>
-      </c>
-      <c r="I55" s="4">
-        <v>6</v>
-      </c>
-      <c r="J55" s="2">
-        <v>335.08508</v>
-      </c>
-      <c r="K55" s="2">
-        <v>766.64779999999996</v>
-      </c>
-      <c r="L55" s="2">
-        <v>145.67473000000001</v>
-      </c>
-      <c r="M55" s="3">
-        <v>110.26111</v>
+      <c r="B55" s="3">
+        <v>22</v>
+      </c>
+      <c r="C55" s="16">
+        <v>18.062062999999998</v>
+      </c>
+      <c r="D55" s="12">
+        <v>33.831654</v>
+      </c>
+      <c r="E55" s="12">
+        <v>5.9696980000000002</v>
+      </c>
+      <c r="F55" s="13">
+        <v>23.513819000000002</v>
+      </c>
+      <c r="I55" s="3">
+        <v>22</v>
+      </c>
+      <c r="J55" s="15">
+        <v>29.104246</v>
+      </c>
+      <c r="K55" s="15">
+        <v>54.455590000000001</v>
+      </c>
+      <c r="L55" s="15">
+        <v>9.7892430000000008</v>
+      </c>
+      <c r="M55" s="2">
+        <v>37.472189999999998</v>
       </c>
     </row>
     <row r="56" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B56" s="4">
-        <v>7</v>
-      </c>
-      <c r="C56" s="2">
-        <v>85.499435000000005</v>
-      </c>
-      <c r="D56" s="2">
-        <v>102.597435</v>
-      </c>
-      <c r="E56" s="2">
-        <v>48.026477999999997</v>
-      </c>
-      <c r="F56" s="3">
-        <v>38.407536</v>
-      </c>
-      <c r="I56" s="4">
-        <v>7</v>
-      </c>
-      <c r="J56" s="2">
-        <v>316.07369999999997</v>
-      </c>
-      <c r="K56" s="2">
-        <v>703.9239</v>
-      </c>
-      <c r="L56" s="2">
-        <v>149.82877999999999</v>
-      </c>
-      <c r="M56" s="3">
-        <v>100.3976</v>
+      <c r="B56" s="3">
+        <v>23</v>
+      </c>
+      <c r="C56" s="16">
+        <v>14.38888</v>
+      </c>
+      <c r="D56" s="12">
+        <v>29.469083999999999</v>
+      </c>
+      <c r="E56" s="12">
+        <v>6.1306409999999998</v>
+      </c>
+      <c r="F56" s="13">
+        <v>23.523067000000001</v>
+      </c>
+      <c r="I56" s="3">
+        <v>23</v>
+      </c>
+      <c r="J56" s="15">
+        <v>23.093274999999998</v>
+      </c>
+      <c r="K56" s="15">
+        <v>47.101112000000001</v>
+      </c>
+      <c r="L56" s="15">
+        <v>10.110290000000001</v>
+      </c>
+      <c r="M56" s="2">
+        <v>37.852093000000004</v>
       </c>
     </row>
     <row r="57" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B57" s="4">
-        <v>8</v>
-      </c>
-      <c r="C57" s="2">
-        <v>88.381489999999999</v>
-      </c>
-      <c r="D57" s="2">
-        <v>102.67565</v>
-      </c>
-      <c r="E57" s="2">
-        <v>49.589010000000002</v>
-      </c>
-      <c r="F57" s="3">
-        <v>49.337707999999999</v>
-      </c>
-      <c r="I57" s="4">
-        <v>8</v>
-      </c>
-      <c r="J57" s="2">
-        <v>376.56810000000002</v>
-      </c>
-      <c r="K57" s="2">
-        <v>723.99630000000002</v>
-      </c>
-      <c r="L57" s="2">
-        <v>181.33894000000001</v>
-      </c>
-      <c r="M57" s="3">
-        <v>131.19798</v>
+      <c r="B57" s="3">
+        <v>24</v>
+      </c>
+      <c r="C57" s="16">
+        <v>12.818889</v>
+      </c>
+      <c r="D57" s="12">
+        <v>35.176369999999999</v>
+      </c>
+      <c r="E57" s="12">
+        <v>5.9859520000000002</v>
+      </c>
+      <c r="F57" s="13">
+        <v>23.343230999999999</v>
+      </c>
+      <c r="I57" s="3">
+        <v>24</v>
+      </c>
+      <c r="J57" s="15">
+        <v>20.548245999999999</v>
+      </c>
+      <c r="K57" s="15">
+        <v>58.022030000000001</v>
+      </c>
+      <c r="L57" s="15">
+        <v>9.6977799999999998</v>
+      </c>
+      <c r="M57" s="2">
+        <v>37.285980000000002</v>
       </c>
     </row>
     <row r="58" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B58" s="4">
-        <v>9</v>
-      </c>
-      <c r="C58" s="2">
-        <v>85.568110000000004</v>
-      </c>
-      <c r="D58" s="2">
-        <v>103.19164000000001</v>
-      </c>
-      <c r="E58" s="2">
-        <v>49.437579999999997</v>
-      </c>
-      <c r="F58" s="3">
-        <v>41.927795000000003</v>
-      </c>
-      <c r="I58" s="4">
-        <v>9</v>
-      </c>
-      <c r="J58" s="2">
-        <v>317.10000000000002</v>
-      </c>
-      <c r="K58" s="2">
-        <v>728.25507000000005</v>
-      </c>
-      <c r="L58" s="2">
-        <v>153.44165000000001</v>
-      </c>
-      <c r="M58" s="3">
-        <v>116.49745</v>
+      <c r="B58" s="3">
+        <v>25</v>
+      </c>
+      <c r="C58" s="16">
+        <v>13.037195000000001</v>
+      </c>
+      <c r="D58" s="12">
+        <v>27.835844000000002</v>
+      </c>
+      <c r="E58" s="12">
+        <v>6.0223890000000004</v>
+      </c>
+      <c r="F58" s="13">
+        <v>23.29569</v>
+      </c>
+      <c r="I58" s="3">
+        <v>25</v>
+      </c>
+      <c r="J58" s="15">
+        <v>21.202698000000002</v>
+      </c>
+      <c r="K58" s="15">
+        <v>44.966239999999999</v>
+      </c>
+      <c r="L58" s="15">
+        <v>9.8664199999999997</v>
+      </c>
+      <c r="M58" s="2">
+        <v>37.480820000000001</v>
       </c>
     </row>
     <row r="59" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B59" s="4">
-        <v>10</v>
-      </c>
-      <c r="C59" s="2">
-        <v>85.400660000000002</v>
-      </c>
-      <c r="D59" s="2">
-        <v>107.70495</v>
-      </c>
-      <c r="E59" s="2">
-        <v>49.30245</v>
-      </c>
-      <c r="F59" s="3">
-        <v>42.925975999999999</v>
-      </c>
-      <c r="I59" s="4">
-        <v>10</v>
-      </c>
-      <c r="J59" s="2">
-        <v>320.58980000000003</v>
-      </c>
-      <c r="K59" s="2">
-        <v>724.63214000000005</v>
-      </c>
-      <c r="L59" s="2">
-        <v>139.3415</v>
-      </c>
-      <c r="M59" s="3">
-        <v>171.91210000000001</v>
+      <c r="B59" s="3">
+        <v>26</v>
+      </c>
+      <c r="C59" s="16">
+        <v>18.268139999999999</v>
+      </c>
+      <c r="D59" s="12">
+        <v>27.644331000000001</v>
+      </c>
+      <c r="E59" s="12">
+        <v>5.9597926000000001</v>
+      </c>
+      <c r="F59" s="13">
+        <v>23.591906000000002</v>
+      </c>
+      <c r="I59" s="3">
+        <v>26</v>
+      </c>
+      <c r="J59" s="15">
+        <v>29.791429999999998</v>
+      </c>
+      <c r="K59" s="15">
+        <v>44.253700000000002</v>
+      </c>
+      <c r="L59" s="15">
+        <v>9.651662</v>
+      </c>
+      <c r="M59" s="2">
+        <v>37.80057</v>
       </c>
     </row>
     <row r="60" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B60" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C60" s="5">
-        <f>AVERAGE(C50:C59)</f>
-        <v>84.711330500000003</v>
-      </c>
-      <c r="D60" s="5">
-        <f>AVERAGE(D50:D59)</f>
-        <v>108.4543011</v>
-      </c>
-      <c r="E60" s="5">
-        <f>AVERAGE(E50:E59)</f>
-        <v>49.41428770000001</v>
-      </c>
-      <c r="F60" s="5">
-        <f>AVERAGE(F50:F59)</f>
-        <v>41.439874000000003</v>
-      </c>
-      <c r="I60" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="J60" s="5">
-        <f>AVERAGE(J50:J59)</f>
-        <v>311.35968200000002</v>
-      </c>
-      <c r="K60" s="5">
-        <f>AVERAGE(K50:K59)</f>
-        <v>736.48372899999993</v>
-      </c>
-      <c r="L60" s="5">
-        <f>AVERAGE(L50:L59)</f>
-        <v>159.81681400000002</v>
-      </c>
-      <c r="M60" s="5">
-        <f>AVERAGE(M50:M59)</f>
-        <v>119.09325800000002</v>
+      <c r="B60" s="3">
+        <v>27</v>
+      </c>
+      <c r="C60" s="16">
+        <v>14.675382000000001</v>
+      </c>
+      <c r="D60" s="12">
+        <v>40.580565999999997</v>
+      </c>
+      <c r="E60" s="12">
+        <v>6.0766799999999996</v>
+      </c>
+      <c r="F60" s="13">
+        <v>23.355979999999999</v>
+      </c>
+      <c r="I60" s="3">
+        <v>27</v>
+      </c>
+      <c r="J60" s="15">
+        <v>23.702127000000001</v>
+      </c>
+      <c r="K60" s="15">
+        <v>64.995450000000005</v>
+      </c>
+      <c r="L60" s="15">
+        <v>9.9488559999999993</v>
+      </c>
+      <c r="M60" s="2">
+        <v>37.457194999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B61" s="3">
+        <v>28</v>
+      </c>
+      <c r="C61" s="16">
+        <v>14.545973999999999</v>
+      </c>
+      <c r="D61" s="12">
+        <v>40.564920000000001</v>
+      </c>
+      <c r="E61" s="12">
+        <v>6.1963629999999998</v>
+      </c>
+      <c r="F61" s="13">
+        <v>23.366367</v>
+      </c>
+      <c r="I61" s="3">
+        <v>28</v>
+      </c>
+      <c r="J61" s="15">
+        <v>23.489222000000002</v>
+      </c>
+      <c r="K61" s="15">
+        <v>65.099249999999998</v>
+      </c>
+      <c r="L61" s="15">
+        <v>10.169974</v>
+      </c>
+      <c r="M61" s="2">
+        <v>37.331859999999999</v>
       </c>
     </row>
     <row r="62" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B62" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C62" s="6"/>
-      <c r="D62" s="6"/>
-      <c r="E62" s="6"/>
-      <c r="F62" s="6"/>
-      <c r="I62" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J62" s="6"/>
-      <c r="K62" s="6"/>
-      <c r="L62" s="6"/>
-      <c r="M62" s="6"/>
+      <c r="B62" s="3">
+        <v>29</v>
+      </c>
+      <c r="C62" s="16">
+        <v>14.851038000000001</v>
+      </c>
+      <c r="D62" s="12">
+        <v>40.229294000000003</v>
+      </c>
+      <c r="E62" s="12">
+        <v>6.2512664999999998</v>
+      </c>
+      <c r="F62" s="13">
+        <v>22.950800000000001</v>
+      </c>
+      <c r="I62" s="3">
+        <v>29</v>
+      </c>
+      <c r="J62" s="15">
+        <v>23.998753000000001</v>
+      </c>
+      <c r="K62" s="15">
+        <v>68.511799999999994</v>
+      </c>
+      <c r="L62" s="15">
+        <v>10.320024500000001</v>
+      </c>
+      <c r="M62" s="2">
+        <v>36.963999999999999</v>
+      </c>
     </row>
     <row r="63" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B63" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="C63" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="D63" s="19"/>
-      <c r="E63" s="19"/>
-      <c r="F63" s="10"/>
-      <c r="I63" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="J63" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="K63" s="19"/>
-      <c r="L63" s="19"/>
-      <c r="M63" s="10"/>
+      <c r="B63" s="3">
+        <v>30</v>
+      </c>
+      <c r="C63" s="17">
+        <v>13.283962000000001</v>
+      </c>
+      <c r="D63" s="18">
+        <v>29.449598000000002</v>
+      </c>
+      <c r="E63" s="18">
+        <v>6.0972520000000001</v>
+      </c>
+      <c r="F63" s="19">
+        <v>23.547499999999999</v>
+      </c>
+      <c r="I63" s="3">
+        <v>30</v>
+      </c>
+      <c r="J63" s="15">
+        <v>21.27075</v>
+      </c>
+      <c r="K63" s="15">
+        <v>46.61871</v>
+      </c>
+      <c r="L63" s="15">
+        <v>9.9474830000000001</v>
+      </c>
+      <c r="M63" s="21">
+        <v>37.957165000000003</v>
+      </c>
     </row>
     <row r="64" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B64" s="20"/>
-      <c r="C64" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D64" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E64" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="F64" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="I64" s="20"/>
-      <c r="J64" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="K64" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="L64" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="M64" s="11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B65" s="4">
-        <v>1</v>
-      </c>
-      <c r="C65" s="2">
-        <v>106.12896000000001</v>
-      </c>
-      <c r="D65" s="2">
-        <v>104.08598000000001</v>
-      </c>
-      <c r="E65" s="2">
-        <v>44.983677</v>
-      </c>
-      <c r="F65" s="3">
-        <v>52.224364999999999</v>
-      </c>
-      <c r="I65" s="4">
-        <v>1</v>
-      </c>
-      <c r="J65" s="2">
-        <v>851.24567000000002</v>
-      </c>
-      <c r="K65" s="2">
-        <v>1110.4883</v>
-      </c>
-      <c r="L65" s="2">
-        <v>408.91442999999998</v>
-      </c>
-      <c r="M65" s="3">
-        <v>371.65035999999998</v>
-      </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B66" s="4">
-        <v>2</v>
-      </c>
-      <c r="C66" s="2">
-        <v>105.64573</v>
-      </c>
-      <c r="D66" s="2">
-        <v>109.44576000000001</v>
-      </c>
-      <c r="E66" s="2">
-        <v>41.051189999999998</v>
-      </c>
-      <c r="F66" s="3">
-        <v>54.899326000000002</v>
-      </c>
-      <c r="I66" s="4">
-        <v>2</v>
-      </c>
-      <c r="J66" s="2">
-        <v>860.97379999999998</v>
-      </c>
-      <c r="K66" s="2">
-        <v>1187.2646</v>
-      </c>
-      <c r="L66" s="2">
-        <v>294.64</v>
-      </c>
-      <c r="M66" s="3">
-        <v>400.85059999999999</v>
-      </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B67" s="4">
-        <v>3</v>
-      </c>
-      <c r="C67" s="2">
-        <v>106.2846</v>
-      </c>
-      <c r="D67" s="2">
-        <v>108.820786</v>
-      </c>
-      <c r="E67" s="2">
-        <v>44.653773999999999</v>
-      </c>
-      <c r="F67" s="3">
-        <v>53.940159999999999</v>
-      </c>
-      <c r="I67" s="4">
-        <v>3</v>
-      </c>
-      <c r="J67" s="2">
-        <v>868.40656000000001</v>
-      </c>
-      <c r="K67" s="2">
-        <v>1076.7107000000001</v>
-      </c>
-      <c r="L67" s="2">
-        <v>389.46206999999998</v>
-      </c>
-      <c r="M67" s="3">
-        <v>365.06387000000001</v>
+      <c r="B64" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C64" s="14">
+        <f>AVERAGE(C34:C63)</f>
+        <v>14.389538666666665</v>
+      </c>
+      <c r="D64" s="14">
+        <f t="shared" ref="D64:F64" si="0">AVERAGE(D34:D63)</f>
+        <v>38.982789499999988</v>
+      </c>
+      <c r="E64" s="14">
+        <f t="shared" si="0"/>
+        <v>6.0526774533333336</v>
+      </c>
+      <c r="F64" s="14">
+        <f t="shared" si="0"/>
+        <v>23.429515866666666</v>
+      </c>
+      <c r="I64" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J64" s="14">
+        <f>AVERAGE(J34:J63)</f>
+        <v>23.239544333333335</v>
+      </c>
+      <c r="K64" s="14">
+        <f t="shared" ref="K64:M64" si="1">AVERAGE(K34:K63)</f>
+        <v>63.969915600000007</v>
+      </c>
+      <c r="L64" s="14">
+        <f t="shared" si="1"/>
+        <v>9.9088259833333314</v>
+      </c>
+      <c r="M64" s="14">
+        <f t="shared" si="1"/>
+        <v>37.569765633333326</v>
       </c>
     </row>
     <row r="68" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B68" s="4">
-        <v>4</v>
-      </c>
-      <c r="C68" s="2">
-        <v>109.55044599999999</v>
-      </c>
-      <c r="D68" s="2">
-        <v>108.86668</v>
-      </c>
-      <c r="E68" s="2">
-        <v>45.720641999999998</v>
-      </c>
-      <c r="F68" s="3">
-        <v>56.671818000000002</v>
-      </c>
-      <c r="I68" s="4">
-        <v>4</v>
-      </c>
-      <c r="J68" s="2">
-        <v>916.08309999999994</v>
-      </c>
-      <c r="K68" s="2">
-        <v>1215.5717</v>
-      </c>
-      <c r="L68" s="2">
-        <v>329.39037999999999</v>
-      </c>
-      <c r="M68" s="3">
-        <v>403.14382999999998</v>
-      </c>
+      <c r="B68" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C68" s="28"/>
+      <c r="D68" s="28"/>
+      <c r="E68" s="28"/>
+      <c r="F68" s="28"/>
+      <c r="I68" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="J68" s="28"/>
+      <c r="K68" s="28"/>
+      <c r="L68" s="28"/>
+      <c r="M68" s="28"/>
     </row>
     <row r="69" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B69" s="4">
-        <v>5</v>
-      </c>
-      <c r="C69" s="2">
-        <v>104.14178</v>
-      </c>
-      <c r="D69" s="2">
-        <v>115.42595</v>
-      </c>
-      <c r="E69" s="2">
-        <v>46.443689999999997</v>
-      </c>
-      <c r="F69" s="3">
-        <v>56.245780000000003</v>
-      </c>
-      <c r="I69" s="4">
-        <v>5</v>
-      </c>
-      <c r="J69" s="2">
-        <v>808.45776000000001</v>
-      </c>
-      <c r="K69" s="2">
-        <v>1178.8668</v>
-      </c>
-      <c r="L69" s="2">
-        <v>389.68040000000002</v>
-      </c>
-      <c r="M69" s="3">
-        <v>384.58019999999999</v>
-      </c>
+      <c r="B69" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C69" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="D69" s="32"/>
+      <c r="E69" s="32"/>
+      <c r="F69" s="24"/>
+      <c r="I69" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="J69" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="K69" s="32"/>
+      <c r="L69" s="32"/>
+      <c r="M69" s="24"/>
     </row>
     <row r="70" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B70" s="4">
-        <v>6</v>
-      </c>
-      <c r="C70" s="2">
-        <v>103.905136</v>
-      </c>
-      <c r="D70" s="2">
-        <v>111.91683999999999</v>
-      </c>
-      <c r="E70" s="2">
-        <v>41.722003999999998</v>
-      </c>
-      <c r="F70" s="3">
-        <v>54.518509999999999</v>
-      </c>
-      <c r="I70" s="4">
-        <v>6</v>
-      </c>
-      <c r="J70" s="2">
-        <v>880.56635000000006</v>
-      </c>
-      <c r="K70" s="2">
-        <v>1200.9464</v>
-      </c>
-      <c r="L70" s="2">
-        <v>296.42252000000002</v>
-      </c>
-      <c r="M70" s="3">
-        <v>368.74151999999998</v>
+      <c r="B70" s="30"/>
+      <c r="C70" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E70" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F70" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I70" s="30"/>
+      <c r="J70" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="K70" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L70" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="M70" s="7" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="71" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B71" s="4">
-        <v>7</v>
-      </c>
-      <c r="C71" s="2">
-        <v>105.4949</v>
-      </c>
-      <c r="D71" s="2">
-        <v>112.26409</v>
-      </c>
-      <c r="E71" s="2">
-        <v>40.308729999999997</v>
-      </c>
-      <c r="F71" s="3">
-        <v>50.328299999999999</v>
-      </c>
-      <c r="I71" s="4">
-        <v>7</v>
-      </c>
-      <c r="J71" s="2">
-        <v>852.04156</v>
-      </c>
-      <c r="K71" s="2">
-        <v>1165.9829</v>
-      </c>
-      <c r="L71" s="2">
-        <v>279.45139999999998</v>
-      </c>
-      <c r="M71" s="3">
-        <v>341.02145000000002</v>
+      <c r="B71" s="3">
+        <v>1</v>
+      </c>
+      <c r="C71" s="1">
+        <v>82.370919999999998</v>
+      </c>
+      <c r="D71">
+        <v>110.87436</v>
+      </c>
+      <c r="E71">
+        <v>49.104649999999999</v>
+      </c>
+      <c r="F71" s="35">
+        <v>43.558459999999997</v>
+      </c>
+      <c r="I71" s="3">
+        <v>1</v>
+      </c>
+      <c r="J71" s="1">
+        <v>314.29422</v>
+      </c>
+      <c r="K71">
+        <v>775.82590000000005</v>
+      </c>
+      <c r="L71">
+        <v>159.51956000000001</v>
+      </c>
+      <c r="M71" s="35">
+        <v>118.48162000000001</v>
       </c>
     </row>
     <row r="72" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B72" s="4">
-        <v>8</v>
-      </c>
-      <c r="C72" s="2">
-        <v>103.50089</v>
-      </c>
-      <c r="D72" s="2">
-        <v>107.79949000000001</v>
-      </c>
-      <c r="E72" s="2">
-        <v>41.027607000000003</v>
-      </c>
-      <c r="F72" s="3">
-        <v>53.146811999999997</v>
-      </c>
-      <c r="I72" s="4">
-        <v>8</v>
-      </c>
-      <c r="J72" s="2">
-        <v>860.84849999999994</v>
-      </c>
-      <c r="K72" s="2">
-        <v>1152.5715</v>
-      </c>
-      <c r="L72" s="2">
-        <v>341.36610000000002</v>
-      </c>
-      <c r="M72" s="3">
-        <v>353.10512999999997</v>
+      <c r="B72" s="3">
+        <v>2</v>
+      </c>
+      <c r="C72" s="1">
+        <v>81.049049999999994</v>
+      </c>
+      <c r="D72">
+        <v>112.96198</v>
+      </c>
+      <c r="E72">
+        <v>49.844414</v>
+      </c>
+      <c r="F72" s="22">
+        <v>37.95288</v>
+      </c>
+      <c r="I72" s="3">
+        <v>2</v>
+      </c>
+      <c r="J72" s="1">
+        <v>267.21249999999998</v>
+      </c>
+      <c r="K72">
+        <v>722.08929999999998</v>
+      </c>
+      <c r="L72">
+        <v>193.38423</v>
+      </c>
+      <c r="M72" s="22">
+        <v>115.57823</v>
       </c>
     </row>
     <row r="73" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B73" s="4">
-        <v>9</v>
-      </c>
-      <c r="C73" s="2">
-        <v>102.90886999999999</v>
-      </c>
-      <c r="D73" s="2">
-        <v>100.72410600000001</v>
-      </c>
-      <c r="E73" s="2">
-        <v>46.703896</v>
-      </c>
-      <c r="F73" s="3">
-        <v>52.720528000000002</v>
-      </c>
-      <c r="I73" s="4">
-        <v>9</v>
-      </c>
-      <c r="J73" s="2">
-        <v>809.11379999999997</v>
-      </c>
-      <c r="K73" s="2">
-        <v>1179.8382999999999</v>
-      </c>
-      <c r="L73" s="2">
-        <v>374.96719999999999</v>
-      </c>
-      <c r="M73" s="3">
-        <v>348.54712000000001</v>
+      <c r="B73" s="3">
+        <v>3</v>
+      </c>
+      <c r="C73" s="1">
+        <v>84.020870000000002</v>
+      </c>
+      <c r="D73">
+        <v>110.90406</v>
+      </c>
+      <c r="E73">
+        <v>46.669690000000003</v>
+      </c>
+      <c r="F73" s="22">
+        <v>37.643079999999998</v>
+      </c>
+      <c r="I73" s="3">
+        <v>3</v>
+      </c>
+      <c r="J73" s="1">
+        <v>321.90987999999999</v>
+      </c>
+      <c r="K73">
+        <v>674.42913999999996</v>
+      </c>
+      <c r="L73">
+        <v>142.82886999999999</v>
+      </c>
+      <c r="M73" s="22">
+        <v>112.08981</v>
       </c>
     </row>
     <row r="74" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B74" s="4">
-        <v>10</v>
-      </c>
-      <c r="C74" s="2">
-        <v>104.38356</v>
-      </c>
-      <c r="D74" s="2">
-        <v>112.66815</v>
-      </c>
-      <c r="E74" s="2">
-        <v>44.253886999999999</v>
-      </c>
-      <c r="F74" s="3">
-        <v>51.680929999999996</v>
-      </c>
-      <c r="I74" s="4">
-        <v>10</v>
-      </c>
-      <c r="J74" s="2">
-        <v>864.75756999999999</v>
-      </c>
-      <c r="K74" s="2">
-        <v>1265.2081000000001</v>
-      </c>
-      <c r="L74" s="2">
-        <v>344.77213</v>
-      </c>
-      <c r="M74" s="3">
-        <v>392.99074999999999</v>
+      <c r="B74" s="3">
+        <v>4</v>
+      </c>
+      <c r="C74" s="1">
+        <v>86.487979999999993</v>
+      </c>
+      <c r="D74">
+        <v>120.54125999999999</v>
+      </c>
+      <c r="E74">
+        <v>50.253193000000003</v>
+      </c>
+      <c r="F74" s="22">
+        <v>38.272669999999998</v>
+      </c>
+      <c r="I74" s="3">
+        <v>4</v>
+      </c>
+      <c r="J74" s="1">
+        <v>310.41012999999998</v>
+      </c>
+      <c r="K74">
+        <v>815.84343999999999</v>
+      </c>
+      <c r="L74">
+        <v>151.30996999999999</v>
+      </c>
+      <c r="M74" s="22">
+        <v>118.45226</v>
       </c>
     </row>
     <row r="75" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B75" s="12" t="s">
+      <c r="B75" s="3">
+        <v>5</v>
+      </c>
+      <c r="C75" s="1">
+        <v>83.067670000000007</v>
+      </c>
+      <c r="D75">
+        <v>108.934586</v>
+      </c>
+      <c r="E75">
+        <v>51.48339</v>
+      </c>
+      <c r="F75" s="22">
+        <v>41.908656999999998</v>
+      </c>
+      <c r="I75" s="3">
+        <v>5</v>
+      </c>
+      <c r="J75" s="1">
+        <v>234.35341</v>
+      </c>
+      <c r="K75">
+        <v>729.1943</v>
+      </c>
+      <c r="L75">
+        <v>181.49991</v>
+      </c>
+      <c r="M75" s="22">
+        <v>96.064419999999998</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B76" s="3">
         <v>6</v>
       </c>
-      <c r="C75" s="5">
-        <f>AVERAGE(C65:C74)</f>
-        <v>105.1944872</v>
-      </c>
-      <c r="D75" s="5">
-        <f>AVERAGE(D65:D74)</f>
-        <v>109.20178319999999</v>
-      </c>
-      <c r="E75" s="5">
-        <f>AVERAGE(E65:E74)</f>
-        <v>43.686909699999994</v>
-      </c>
-      <c r="F75" s="5">
-        <f>AVERAGE(F65:F74)</f>
-        <v>53.637652899999999</v>
-      </c>
-      <c r="I75" s="12" t="s">
+      <c r="C76" s="1">
+        <v>85.267120000000006</v>
+      </c>
+      <c r="D76">
+        <v>104.15709</v>
+      </c>
+      <c r="E76">
+        <v>50.432022000000003</v>
+      </c>
+      <c r="F76" s="22">
+        <v>42.463977999999997</v>
+      </c>
+      <c r="I76" s="3">
         <v>6</v>
       </c>
-      <c r="J75" s="5">
-        <f>AVERAGE(J65:J74)</f>
-        <v>857.24946699999998</v>
-      </c>
-      <c r="K75" s="5">
-        <f>AVERAGE(K65:K74)</f>
-        <v>1173.3449299999997</v>
-      </c>
-      <c r="L75" s="5">
-        <f>AVERAGE(L65:L74)</f>
-        <v>344.90666299999998</v>
-      </c>
-      <c r="M75" s="5">
-        <f>AVERAGE(M65:M74)</f>
-        <v>372.96948300000003</v>
+      <c r="J76" s="1">
+        <v>335.08508</v>
+      </c>
+      <c r="K76">
+        <v>766.64779999999996</v>
+      </c>
+      <c r="L76">
+        <v>145.67473000000001</v>
+      </c>
+      <c r="M76" s="22">
+        <v>110.26111</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B77" s="3">
+        <v>7</v>
+      </c>
+      <c r="C77" s="1">
+        <v>85.499435000000005</v>
+      </c>
+      <c r="D77">
+        <v>102.597435</v>
+      </c>
+      <c r="E77">
+        <v>48.026477999999997</v>
+      </c>
+      <c r="F77" s="22">
+        <v>38.407536</v>
+      </c>
+      <c r="I77" s="3">
+        <v>7</v>
+      </c>
+      <c r="J77" s="1">
+        <v>316.07369999999997</v>
+      </c>
+      <c r="K77">
+        <v>703.9239</v>
+      </c>
+      <c r="L77">
+        <v>149.82877999999999</v>
+      </c>
+      <c r="M77" s="22">
+        <v>100.3976</v>
+      </c>
+    </row>
+    <row r="78" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B78" s="3">
+        <v>8</v>
+      </c>
+      <c r="C78" s="1">
+        <v>88.381489999999999</v>
+      </c>
+      <c r="D78">
+        <v>102.67565</v>
+      </c>
+      <c r="E78">
+        <v>49.589010000000002</v>
+      </c>
+      <c r="F78" s="22">
+        <v>49.337707999999999</v>
+      </c>
+      <c r="I78" s="3">
+        <v>8</v>
+      </c>
+      <c r="J78" s="1">
+        <v>376.56810000000002</v>
+      </c>
+      <c r="K78">
+        <v>723.99630000000002</v>
+      </c>
+      <c r="L78">
+        <v>181.33894000000001</v>
+      </c>
+      <c r="M78" s="22">
+        <v>131.19798</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B79" s="3">
+        <v>9</v>
+      </c>
+      <c r="C79" s="1">
+        <v>85.568110000000004</v>
+      </c>
+      <c r="D79">
+        <v>103.19164000000001</v>
+      </c>
+      <c r="E79">
+        <v>49.437579999999997</v>
+      </c>
+      <c r="F79" s="22">
+        <v>41.927795000000003</v>
+      </c>
+      <c r="I79" s="3">
+        <v>9</v>
+      </c>
+      <c r="J79" s="1">
+        <v>317.10000000000002</v>
+      </c>
+      <c r="K79">
+        <v>728.25507000000005</v>
+      </c>
+      <c r="L79">
+        <v>153.44165000000001</v>
+      </c>
+      <c r="M79" s="22">
+        <v>116.49745</v>
+      </c>
+    </row>
+    <row r="80" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B80" s="3">
+        <v>10</v>
+      </c>
+      <c r="C80" s="1">
+        <v>85.400660000000002</v>
+      </c>
+      <c r="D80">
+        <v>107.70495</v>
+      </c>
+      <c r="E80">
+        <v>49.30245</v>
+      </c>
+      <c r="F80" s="22">
+        <v>42.925975999999999</v>
+      </c>
+      <c r="I80" s="3">
+        <v>10</v>
+      </c>
+      <c r="J80" s="1">
+        <v>320.58980000000003</v>
+      </c>
+      <c r="K80">
+        <v>724.63214000000005</v>
+      </c>
+      <c r="L80">
+        <v>139.3415</v>
+      </c>
+      <c r="M80" s="22">
+        <v>171.91210000000001</v>
+      </c>
+    </row>
+    <row r="81" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B81" s="3">
+        <v>11</v>
+      </c>
+      <c r="C81">
+        <v>88.105180000000004</v>
+      </c>
+      <c r="D81">
+        <v>113.49627</v>
+      </c>
+      <c r="E81">
+        <v>48.81953</v>
+      </c>
+      <c r="F81" s="22">
+        <v>36.497129999999999</v>
+      </c>
+      <c r="I81" s="3">
+        <v>11</v>
+      </c>
+      <c r="J81">
+        <v>320.86219999999997</v>
+      </c>
+      <c r="K81">
+        <v>784.32195999999999</v>
+      </c>
+      <c r="L81">
+        <v>141.12782000000001</v>
+      </c>
+      <c r="M81" s="22">
+        <v>113.062546</v>
+      </c>
+    </row>
+    <row r="82" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B82" s="3">
+        <v>12</v>
+      </c>
+      <c r="C82">
+        <v>82.889439999999993</v>
+      </c>
+      <c r="D82">
+        <v>105.40185</v>
+      </c>
+      <c r="E82">
+        <v>48.891131999999999</v>
+      </c>
+      <c r="F82" s="22">
+        <v>35.480829999999997</v>
+      </c>
+      <c r="I82" s="3">
+        <v>12</v>
+      </c>
+      <c r="J82">
+        <v>293.77699999999999</v>
+      </c>
+      <c r="K82">
+        <v>737.41269999999997</v>
+      </c>
+      <c r="L82">
+        <v>172.32599999999999</v>
+      </c>
+      <c r="M82" s="22">
+        <v>85.368965000000003</v>
+      </c>
+    </row>
+    <row r="83" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B83" s="3">
+        <v>13</v>
+      </c>
+      <c r="C83">
+        <v>84.391555999999994</v>
+      </c>
+      <c r="D83">
+        <v>111.2373</v>
+      </c>
+      <c r="E83">
+        <v>47.865532000000002</v>
+      </c>
+      <c r="F83" s="22">
+        <v>40.391106000000001</v>
+      </c>
+      <c r="I83" s="3">
+        <v>13</v>
+      </c>
+      <c r="J83">
+        <v>328.95587</v>
+      </c>
+      <c r="K83">
+        <v>749.90845000000002</v>
+      </c>
+      <c r="L83">
+        <v>137.89581000000001</v>
+      </c>
+      <c r="M83" s="22">
+        <v>121.94768500000001</v>
+      </c>
+    </row>
+    <row r="84" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B84" s="3">
+        <v>14</v>
+      </c>
+      <c r="C84">
+        <v>85.812645000000003</v>
+      </c>
+      <c r="D84">
+        <v>106.44653</v>
+      </c>
+      <c r="E84">
+        <v>49.257441999999998</v>
+      </c>
+      <c r="F84" s="22">
+        <v>37.139088000000001</v>
+      </c>
+      <c r="I84" s="3">
+        <v>14</v>
+      </c>
+      <c r="J84">
+        <v>334.88900000000001</v>
+      </c>
+      <c r="K84">
+        <v>695.02710000000002</v>
+      </c>
+      <c r="L84">
+        <v>169.43501000000001</v>
+      </c>
+      <c r="M84" s="22">
+        <v>112.68394000000001</v>
+      </c>
+    </row>
+    <row r="85" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B85" s="3">
+        <v>15</v>
+      </c>
+      <c r="C85">
+        <v>85.939125000000004</v>
+      </c>
+      <c r="D85">
+        <v>102.84134</v>
+      </c>
+      <c r="E85">
+        <v>48.99221</v>
+      </c>
+      <c r="F85" s="22">
+        <v>40.38729</v>
+      </c>
+      <c r="I85" s="3">
+        <v>15</v>
+      </c>
+      <c r="J85">
+        <v>333.81319999999999</v>
+      </c>
+      <c r="K85">
+        <v>656.77380000000005</v>
+      </c>
+      <c r="L85">
+        <v>151.76982000000001</v>
+      </c>
+      <c r="M85" s="22">
+        <v>86.573700000000002</v>
+      </c>
+    </row>
+    <row r="86" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B86" s="3">
+        <v>16</v>
+      </c>
+      <c r="C86">
+        <v>86.054249999999996</v>
+      </c>
+      <c r="D86">
+        <v>95.602739999999997</v>
+      </c>
+      <c r="E86">
+        <v>48.616188000000001</v>
+      </c>
+      <c r="F86" s="22">
+        <v>41.244408</v>
+      </c>
+      <c r="I86" s="3">
+        <v>16</v>
+      </c>
+      <c r="J86">
+        <v>307.91973999999999</v>
+      </c>
+      <c r="K86">
+        <v>590.71094000000005</v>
+      </c>
+      <c r="L86">
+        <v>134.70060000000001</v>
+      </c>
+      <c r="M86" s="22">
+        <v>116.94079600000001</v>
+      </c>
+    </row>
+    <row r="87" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B87" s="3">
+        <v>17</v>
+      </c>
+      <c r="C87">
+        <v>82.400090000000006</v>
+      </c>
+      <c r="D87">
+        <v>105.16283</v>
+      </c>
+      <c r="E87">
+        <v>48.061920000000001</v>
+      </c>
+      <c r="F87" s="22">
+        <v>43.335402999999999</v>
+      </c>
+      <c r="I87" s="3">
+        <v>17</v>
+      </c>
+      <c r="J87">
+        <v>268.49973</v>
+      </c>
+      <c r="K87">
+        <v>713.24450000000002</v>
+      </c>
+      <c r="L87">
+        <v>148.45406</v>
+      </c>
+      <c r="M87" s="22">
+        <v>137.76802000000001</v>
+      </c>
+    </row>
+    <row r="88" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B88" s="3">
+        <v>18</v>
+      </c>
+      <c r="C88">
+        <v>85.514144999999999</v>
+      </c>
+      <c r="D88">
+        <v>105.72217999999999</v>
+      </c>
+      <c r="E88">
+        <v>47.838380000000001</v>
+      </c>
+      <c r="F88" s="22">
+        <v>42.165550000000003</v>
+      </c>
+      <c r="I88" s="3">
+        <v>18</v>
+      </c>
+      <c r="J88">
+        <v>305.59195</v>
+      </c>
+      <c r="K88">
+        <v>689.06899999999996</v>
+      </c>
+      <c r="L88">
+        <v>155.04624999999999</v>
+      </c>
+      <c r="M88" s="22">
+        <v>95.690346000000005</v>
+      </c>
+    </row>
+    <row r="89" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B89" s="3">
+        <v>19</v>
+      </c>
+      <c r="C89">
+        <v>85.4255</v>
+      </c>
+      <c r="D89">
+        <v>105.98233</v>
+      </c>
+      <c r="E89">
+        <v>46.001139999999999</v>
+      </c>
+      <c r="F89" s="22">
+        <v>39.618429999999996</v>
+      </c>
+      <c r="I89" s="3">
+        <v>19</v>
+      </c>
+      <c r="J89">
+        <v>328.11194</v>
+      </c>
+      <c r="K89">
+        <v>701.49599999999998</v>
+      </c>
+      <c r="L89">
+        <v>127.00591</v>
+      </c>
+      <c r="M89" s="22">
+        <v>130.22118</v>
+      </c>
+    </row>
+    <row r="90" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B90" s="3">
+        <v>20</v>
+      </c>
+      <c r="C90">
+        <v>85.590649999999997</v>
+      </c>
+      <c r="D90">
+        <v>109.61485</v>
+      </c>
+      <c r="E90">
+        <v>46.127670000000002</v>
+      </c>
+      <c r="F90" s="22">
+        <v>41.648674</v>
+      </c>
+      <c r="I90" s="3">
+        <v>20</v>
+      </c>
+      <c r="J90">
+        <v>326.23334</v>
+      </c>
+      <c r="K90">
+        <v>772.89513999999997</v>
+      </c>
+      <c r="L90">
+        <v>128.41857999999999</v>
+      </c>
+      <c r="M90" s="22">
+        <v>105.278114</v>
+      </c>
+    </row>
+    <row r="91" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B91" s="3">
+        <v>21</v>
+      </c>
+      <c r="C91">
+        <v>86.488349999999997</v>
+      </c>
+      <c r="D91">
+        <v>107.16894000000001</v>
+      </c>
+      <c r="E91">
+        <v>50.411087000000002</v>
+      </c>
+      <c r="F91" s="22">
+        <v>41.383488</v>
+      </c>
+      <c r="I91" s="3">
+        <v>21</v>
+      </c>
+      <c r="J91">
+        <v>293.95312000000001</v>
+      </c>
+      <c r="K91">
+        <v>721.79974000000004</v>
+      </c>
+      <c r="L91">
+        <v>160.25014999999999</v>
+      </c>
+      <c r="M91" s="22">
+        <v>182.78368</v>
+      </c>
+    </row>
+    <row r="92" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B92" s="3">
+        <v>22</v>
+      </c>
+      <c r="C92">
+        <v>88.989869999999996</v>
+      </c>
+      <c r="D92">
+        <v>111.2332</v>
+      </c>
+      <c r="E92">
+        <v>50.141170000000002</v>
+      </c>
+      <c r="F92" s="22">
+        <v>35.793292999999998</v>
+      </c>
+      <c r="I92" s="3">
+        <v>22</v>
+      </c>
+      <c r="J92">
+        <v>373.25414999999998</v>
+      </c>
+      <c r="K92">
+        <v>815.59973000000002</v>
+      </c>
+      <c r="L92">
+        <v>164.88791000000001</v>
+      </c>
+      <c r="M92" s="22">
+        <v>113.65579</v>
+      </c>
+    </row>
+    <row r="93" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B93" s="3">
+        <v>23</v>
+      </c>
+      <c r="C93">
+        <v>83.043390000000002</v>
+      </c>
+      <c r="D93">
+        <v>103.91617599999999</v>
+      </c>
+      <c r="E93">
+        <v>50.012413000000002</v>
+      </c>
+      <c r="F93" s="22">
+        <v>41.493859999999998</v>
+      </c>
+      <c r="I93" s="3">
+        <v>23</v>
+      </c>
+      <c r="J93">
+        <v>279.30279999999999</v>
+      </c>
+      <c r="K93">
+        <v>770.24580000000003</v>
+      </c>
+      <c r="L93">
+        <v>138.60703000000001</v>
+      </c>
+      <c r="M93" s="22">
+        <v>115.249466</v>
+      </c>
+    </row>
+    <row r="94" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B94" s="3">
+        <v>24</v>
+      </c>
+      <c r="C94">
+        <v>84.911190000000005</v>
+      </c>
+      <c r="D94">
+        <v>102.76751</v>
+      </c>
+      <c r="E94">
+        <v>46.32038</v>
+      </c>
+      <c r="F94" s="22">
+        <v>37.951427000000002</v>
+      </c>
+      <c r="I94" s="3">
+        <v>24</v>
+      </c>
+      <c r="J94">
+        <v>323.7312</v>
+      </c>
+      <c r="K94">
+        <v>701.98099999999999</v>
+      </c>
+      <c r="L94">
+        <v>162.75837999999999</v>
+      </c>
+      <c r="M94" s="22">
+        <v>142.48528999999999</v>
+      </c>
+    </row>
+    <row r="95" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B95" s="3">
+        <v>25</v>
+      </c>
+      <c r="C95">
+        <v>85.400859999999994</v>
+      </c>
+      <c r="D95">
+        <v>109.782135</v>
+      </c>
+      <c r="E95">
+        <v>47.809936999999998</v>
+      </c>
+      <c r="F95" s="22">
+        <v>45.787483000000002</v>
+      </c>
+      <c r="I95" s="3">
+        <v>25</v>
+      </c>
+      <c r="J95">
+        <v>288.38605000000001</v>
+      </c>
+      <c r="K95">
+        <v>903.28489999999999</v>
+      </c>
+      <c r="L95">
+        <v>128.88820999999999</v>
+      </c>
+      <c r="M95" s="22">
+        <v>126.08148</v>
+      </c>
+    </row>
+    <row r="96" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B96" s="3">
+        <v>26</v>
+      </c>
+      <c r="C96">
+        <v>87.134960000000007</v>
+      </c>
+      <c r="D96">
+        <v>97.517139999999998</v>
+      </c>
+      <c r="E96">
+        <v>49.434066999999999</v>
+      </c>
+      <c r="F96" s="22">
+        <v>41.319546000000003</v>
+      </c>
+      <c r="I96" s="3">
+        <v>26</v>
+      </c>
+      <c r="J96">
+        <v>342.28910000000002</v>
+      </c>
+      <c r="K96">
+        <v>611.77560000000005</v>
+      </c>
+      <c r="L96">
+        <v>146.06778</v>
+      </c>
+      <c r="M96" s="22">
+        <v>161.04159999999999</v>
+      </c>
+    </row>
+    <row r="97" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B97" s="3">
+        <v>27</v>
+      </c>
+      <c r="C97">
+        <v>85.833699999999993</v>
+      </c>
+      <c r="D97">
+        <v>107.96416000000001</v>
+      </c>
+      <c r="E97">
+        <v>50.472335999999999</v>
+      </c>
+      <c r="F97" s="22">
+        <v>52.879986000000002</v>
+      </c>
+      <c r="I97" s="3">
+        <v>27</v>
+      </c>
+      <c r="J97">
+        <v>336.82974000000002</v>
+      </c>
+      <c r="K97">
+        <v>705.78510000000006</v>
+      </c>
+      <c r="L97">
+        <v>155.22957</v>
+      </c>
+      <c r="M97" s="22">
+        <v>162.22414000000001</v>
+      </c>
+    </row>
+    <row r="98" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B98" s="3">
+        <v>28</v>
+      </c>
+      <c r="C98">
+        <v>83.560744999999997</v>
+      </c>
+      <c r="D98">
+        <v>99.193793999999997</v>
+      </c>
+      <c r="E98">
+        <v>48.532401999999998</v>
+      </c>
+      <c r="F98" s="22">
+        <v>42.475895000000001</v>
+      </c>
+      <c r="I98" s="3">
+        <v>28</v>
+      </c>
+      <c r="J98">
+        <v>293.36250000000001</v>
+      </c>
+      <c r="K98">
+        <v>666.19470000000001</v>
+      </c>
+      <c r="L98">
+        <v>147.66154</v>
+      </c>
+      <c r="M98" s="22">
+        <v>159.60946999999999</v>
+      </c>
+    </row>
+    <row r="99" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B99" s="3">
+        <v>29</v>
+      </c>
+      <c r="C99">
+        <v>81.459366000000003</v>
+      </c>
+      <c r="D99">
+        <v>97.240039999999993</v>
+      </c>
+      <c r="E99">
+        <v>47.040286999999999</v>
+      </c>
+      <c r="F99" s="22">
+        <v>39.940024999999999</v>
+      </c>
+      <c r="I99" s="3">
+        <v>29</v>
+      </c>
+      <c r="J99">
+        <v>263.91129999999998</v>
+      </c>
+      <c r="K99">
+        <v>680.32874000000004</v>
+      </c>
+      <c r="L99">
+        <v>127.25767</v>
+      </c>
+      <c r="M99" s="22">
+        <v>146.94923</v>
+      </c>
+    </row>
+    <row r="100" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B100" s="3">
+        <v>30</v>
+      </c>
+      <c r="C100">
+        <v>84.250510000000006</v>
+      </c>
+      <c r="D100">
+        <v>103.00445000000001</v>
+      </c>
+      <c r="E100">
+        <v>51.018196000000003</v>
+      </c>
+      <c r="F100" s="23">
+        <v>36.165965999999997</v>
+      </c>
+      <c r="I100" s="3">
+        <v>30</v>
+      </c>
+      <c r="J100">
+        <v>304.75549999999998</v>
+      </c>
+      <c r="K100">
+        <v>697.81915000000004</v>
+      </c>
+      <c r="L100">
+        <v>154.69945999999999</v>
+      </c>
+      <c r="M100" s="23">
+        <v>110.38365</v>
+      </c>
+    </row>
+    <row r="101" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B101" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C101" s="4">
+        <f>AVERAGE(C71:C100)</f>
+        <v>85.010294233333354</v>
+      </c>
+      <c r="D101" s="4">
+        <f>AVERAGE(D71:D100)</f>
+        <v>106.19462586666667</v>
+      </c>
+      <c r="E101" s="4">
+        <f t="shared" ref="D101:F101" si="2">AVERAGE(E71:E100)</f>
+        <v>48.860209866666672</v>
+      </c>
+      <c r="F101" s="4">
+        <f t="shared" si="2"/>
+        <v>40.916587266666674</v>
+      </c>
+      <c r="I101" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J101" s="4">
+        <f>AVERAGE(J71:J100)</f>
+        <v>312.06754166666661</v>
+      </c>
+      <c r="K101" s="4">
+        <f t="shared" ref="K101:M101" si="3">AVERAGE(K71:K100)</f>
+        <v>724.35037799999998</v>
+      </c>
+      <c r="L101" s="4">
+        <f t="shared" si="3"/>
+        <v>151.68852333333334</v>
+      </c>
+      <c r="M101" s="4">
+        <f t="shared" si="3"/>
+        <v>123.89772226666669</v>
+      </c>
+    </row>
+    <row r="105" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D105" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E105" s="5"/>
+      <c r="F105" s="5"/>
+      <c r="G105" s="33"/>
+      <c r="H105" s="33"/>
+      <c r="K105" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L105" s="5"/>
+      <c r="M105" s="5"/>
+      <c r="N105" s="33"/>
+      <c r="O105" s="33"/>
+    </row>
+    <row r="106" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B106" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C106" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="D106" s="32"/>
+      <c r="E106" s="32"/>
+      <c r="F106" s="24"/>
+      <c r="G106" s="34"/>
+      <c r="H106" s="34"/>
+      <c r="I106" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="J106" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="K106" s="32"/>
+      <c r="L106" s="32"/>
+      <c r="M106" s="24"/>
+      <c r="N106" s="34"/>
+      <c r="O106" s="34"/>
+    </row>
+    <row r="107" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B107" s="10"/>
+      <c r="C107" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D107" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E107" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F107" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I107" s="10"/>
+      <c r="J107" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="K107" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L107" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="M107" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B108" s="3">
+        <v>1</v>
+      </c>
+      <c r="C108">
+        <v>106.12896000000001</v>
+      </c>
+      <c r="D108">
+        <v>104.08598000000001</v>
+      </c>
+      <c r="E108">
+        <v>44.983677</v>
+      </c>
+      <c r="F108" s="35">
+        <v>52.224364999999999</v>
+      </c>
+      <c r="I108" s="3">
+        <v>1</v>
+      </c>
+      <c r="J108">
+        <v>851.24567000000002</v>
+      </c>
+      <c r="K108">
+        <v>1110.4883</v>
+      </c>
+      <c r="L108">
+        <v>408.91442999999998</v>
+      </c>
+      <c r="M108" s="35">
+        <v>371.65035999999998</v>
+      </c>
+    </row>
+    <row r="109" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B109" s="3">
+        <v>2</v>
+      </c>
+      <c r="C109">
+        <v>105.64573</v>
+      </c>
+      <c r="D109">
+        <v>109.44576000000001</v>
+      </c>
+      <c r="E109">
+        <v>41.051189999999998</v>
+      </c>
+      <c r="F109" s="22">
+        <v>54.899326000000002</v>
+      </c>
+      <c r="I109" s="3">
+        <v>2</v>
+      </c>
+      <c r="J109">
+        <v>860.97379999999998</v>
+      </c>
+      <c r="K109">
+        <v>1187.2646</v>
+      </c>
+      <c r="L109">
+        <v>294.64</v>
+      </c>
+      <c r="M109" s="22">
+        <v>400.85059999999999</v>
+      </c>
+    </row>
+    <row r="110" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B110" s="3">
+        <v>3</v>
+      </c>
+      <c r="C110">
+        <v>106.2846</v>
+      </c>
+      <c r="D110">
+        <v>108.820786</v>
+      </c>
+      <c r="E110">
+        <v>44.653773999999999</v>
+      </c>
+      <c r="F110" s="22">
+        <v>53.940159999999999</v>
+      </c>
+      <c r="I110" s="3">
+        <v>3</v>
+      </c>
+      <c r="J110">
+        <v>868.40656000000001</v>
+      </c>
+      <c r="K110">
+        <v>1076.7107000000001</v>
+      </c>
+      <c r="L110">
+        <v>389.46206999999998</v>
+      </c>
+      <c r="M110" s="22">
+        <v>365.06387000000001</v>
+      </c>
+    </row>
+    <row r="111" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B111" s="3">
+        <v>4</v>
+      </c>
+      <c r="C111">
+        <v>109.55044599999999</v>
+      </c>
+      <c r="D111">
+        <v>108.86668</v>
+      </c>
+      <c r="E111">
+        <v>45.720641999999998</v>
+      </c>
+      <c r="F111" s="22">
+        <v>56.671818000000002</v>
+      </c>
+      <c r="I111" s="3">
+        <v>4</v>
+      </c>
+      <c r="J111">
+        <v>916.08309999999994</v>
+      </c>
+      <c r="K111">
+        <v>1215.5717</v>
+      </c>
+      <c r="L111">
+        <v>329.39037999999999</v>
+      </c>
+      <c r="M111" s="22">
+        <v>403.14382999999998</v>
+      </c>
+    </row>
+    <row r="112" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B112" s="3">
+        <v>5</v>
+      </c>
+      <c r="C112">
+        <v>104.14178</v>
+      </c>
+      <c r="D112">
+        <v>115.42595</v>
+      </c>
+      <c r="E112">
+        <v>46.443689999999997</v>
+      </c>
+      <c r="F112" s="22">
+        <v>56.245780000000003</v>
+      </c>
+      <c r="I112" s="3">
+        <v>5</v>
+      </c>
+      <c r="J112">
+        <v>808.45776000000001</v>
+      </c>
+      <c r="K112">
+        <v>1178.8668</v>
+      </c>
+      <c r="L112">
+        <v>389.68040000000002</v>
+      </c>
+      <c r="M112" s="22">
+        <v>384.58019999999999</v>
+      </c>
+    </row>
+    <row r="113" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B113" s="3">
+        <v>6</v>
+      </c>
+      <c r="C113">
+        <v>103.905136</v>
+      </c>
+      <c r="D113">
+        <v>111.91683999999999</v>
+      </c>
+      <c r="E113">
+        <v>41.722003999999998</v>
+      </c>
+      <c r="F113" s="22">
+        <v>54.518509999999999</v>
+      </c>
+      <c r="I113" s="3">
+        <v>6</v>
+      </c>
+      <c r="J113">
+        <v>880.56635000000006</v>
+      </c>
+      <c r="K113">
+        <v>1200.9464</v>
+      </c>
+      <c r="L113">
+        <v>296.42252000000002</v>
+      </c>
+      <c r="M113" s="22">
+        <v>368.74151999999998</v>
+      </c>
+    </row>
+    <row r="114" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B114" s="3">
+        <v>7</v>
+      </c>
+      <c r="C114">
+        <v>105.4949</v>
+      </c>
+      <c r="D114">
+        <v>112.26409</v>
+      </c>
+      <c r="E114">
+        <v>40.308729999999997</v>
+      </c>
+      <c r="F114" s="22">
+        <v>50.328299999999999</v>
+      </c>
+      <c r="I114" s="3">
+        <v>7</v>
+      </c>
+      <c r="J114">
+        <v>852.04156</v>
+      </c>
+      <c r="K114">
+        <v>1165.9829</v>
+      </c>
+      <c r="L114">
+        <v>279.45139999999998</v>
+      </c>
+      <c r="M114" s="22">
+        <v>341.02145000000002</v>
+      </c>
+    </row>
+    <row r="115" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B115" s="3">
+        <v>8</v>
+      </c>
+      <c r="C115">
+        <v>103.50089</v>
+      </c>
+      <c r="D115">
+        <v>107.79949000000001</v>
+      </c>
+      <c r="E115">
+        <v>41.027607000000003</v>
+      </c>
+      <c r="F115" s="22">
+        <v>53.146811999999997</v>
+      </c>
+      <c r="I115" s="3">
+        <v>8</v>
+      </c>
+      <c r="J115">
+        <v>860.84849999999994</v>
+      </c>
+      <c r="K115">
+        <v>1152.5715</v>
+      </c>
+      <c r="L115">
+        <v>341.36610000000002</v>
+      </c>
+      <c r="M115" s="22">
+        <v>353.10512999999997</v>
+      </c>
+    </row>
+    <row r="116" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B116" s="3">
+        <v>9</v>
+      </c>
+      <c r="C116">
+        <v>102.90886999999999</v>
+      </c>
+      <c r="D116">
+        <v>100.72410600000001</v>
+      </c>
+      <c r="E116">
+        <v>46.703896</v>
+      </c>
+      <c r="F116" s="22">
+        <v>52.720528000000002</v>
+      </c>
+      <c r="I116" s="3">
+        <v>9</v>
+      </c>
+      <c r="J116">
+        <v>809.11379999999997</v>
+      </c>
+      <c r="K116">
+        <v>1179.8382999999999</v>
+      </c>
+      <c r="L116">
+        <v>374.96719999999999</v>
+      </c>
+      <c r="M116" s="22">
+        <v>348.54712000000001</v>
+      </c>
+    </row>
+    <row r="117" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B117" s="3">
+        <v>10</v>
+      </c>
+      <c r="C117">
+        <v>104.38356</v>
+      </c>
+      <c r="D117">
+        <v>112.66815</v>
+      </c>
+      <c r="E117">
+        <v>44.253886999999999</v>
+      </c>
+      <c r="F117" s="22">
+        <v>51.680929999999996</v>
+      </c>
+      <c r="I117" s="3">
+        <v>10</v>
+      </c>
+      <c r="J117">
+        <v>864.75756999999999</v>
+      </c>
+      <c r="K117">
+        <v>1265.2081000000001</v>
+      </c>
+      <c r="L117">
+        <v>344.77213</v>
+      </c>
+      <c r="M117" s="22">
+        <v>392.99074999999999</v>
+      </c>
+    </row>
+    <row r="118" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B118" s="3">
+        <v>11</v>
+      </c>
+      <c r="C118">
+        <v>106.11369000000001</v>
+      </c>
+      <c r="D118">
+        <v>119.76501</v>
+      </c>
+      <c r="E118">
+        <v>43.848559999999999</v>
+      </c>
+      <c r="F118" s="22">
+        <v>51.363444999999999</v>
+      </c>
+      <c r="I118" s="3">
+        <v>11</v>
+      </c>
+      <c r="J118">
+        <v>853.1789</v>
+      </c>
+      <c r="K118">
+        <v>1233.4701</v>
+      </c>
+      <c r="L118">
+        <v>386.44857999999999</v>
+      </c>
+      <c r="M118" s="22">
+        <v>395.49448000000001</v>
+      </c>
+    </row>
+    <row r="119" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B119" s="3">
+        <v>12</v>
+      </c>
+      <c r="C119">
+        <v>103.08177000000001</v>
+      </c>
+      <c r="D119">
+        <v>107.562645</v>
+      </c>
+      <c r="E119">
+        <v>42.857964000000003</v>
+      </c>
+      <c r="F119" s="22">
+        <v>51.447809999999997</v>
+      </c>
+      <c r="I119" s="3">
+        <v>12</v>
+      </c>
+      <c r="J119">
+        <v>856.94200000000001</v>
+      </c>
+      <c r="K119">
+        <v>1130.2454</v>
+      </c>
+      <c r="L119">
+        <v>389.28708</v>
+      </c>
+      <c r="M119" s="22">
+        <v>362.68889999999999</v>
+      </c>
+    </row>
+    <row r="120" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B120" s="3">
+        <v>13</v>
+      </c>
+      <c r="C120">
+        <v>106.473946</v>
+      </c>
+      <c r="D120">
+        <v>102.93429999999999</v>
+      </c>
+      <c r="E120">
+        <v>40.131309999999999</v>
+      </c>
+      <c r="F120" s="22">
+        <v>54.747855999999999</v>
+      </c>
+      <c r="I120" s="3">
+        <v>13</v>
+      </c>
+      <c r="J120">
+        <v>852.24505999999997</v>
+      </c>
+      <c r="K120">
+        <v>1093.6403</v>
+      </c>
+      <c r="L120">
+        <v>267.59903000000003</v>
+      </c>
+      <c r="M120" s="22">
+        <v>349.39510000000001</v>
+      </c>
+    </row>
+    <row r="121" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B121" s="3">
+        <v>14</v>
+      </c>
+      <c r="C121">
+        <v>103.58112</v>
+      </c>
+      <c r="D121">
+        <v>110.260864</v>
+      </c>
+      <c r="E121">
+        <v>42.444915999999999</v>
+      </c>
+      <c r="F121" s="22">
+        <v>54.834507000000002</v>
+      </c>
+      <c r="I121" s="3">
+        <v>14</v>
+      </c>
+      <c r="J121">
+        <v>864.27329999999995</v>
+      </c>
+      <c r="K121">
+        <v>1222.7797</v>
+      </c>
+      <c r="L121">
+        <v>370.45074</v>
+      </c>
+      <c r="M121" s="22">
+        <v>381.38326999999998</v>
+      </c>
+    </row>
+    <row r="122" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B122" s="3">
+        <v>15</v>
+      </c>
+      <c r="C122">
+        <v>103.33552</v>
+      </c>
+      <c r="D122">
+        <v>109.15011</v>
+      </c>
+      <c r="E122">
+        <v>51.897846000000001</v>
+      </c>
+      <c r="F122" s="22">
+        <v>55.307200000000002</v>
+      </c>
+      <c r="I122" s="3">
+        <v>15</v>
+      </c>
+      <c r="J122">
+        <v>838.76995999999997</v>
+      </c>
+      <c r="K122">
+        <v>1169.8865000000001</v>
+      </c>
+      <c r="L122">
+        <v>333.80712999999997</v>
+      </c>
+      <c r="M122" s="22">
+        <v>410.39960000000002</v>
+      </c>
+    </row>
+    <row r="123" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B123" s="3">
+        <v>16</v>
+      </c>
+      <c r="C123">
+        <v>99.847570000000005</v>
+      </c>
+      <c r="D123">
+        <v>111.46516</v>
+      </c>
+      <c r="E123">
+        <v>39.421770000000002</v>
+      </c>
+      <c r="F123" s="22">
+        <v>50.040596000000001</v>
+      </c>
+      <c r="I123" s="3">
+        <v>16</v>
+      </c>
+      <c r="J123">
+        <v>832.53279999999995</v>
+      </c>
+      <c r="K123">
+        <v>1289.5834</v>
+      </c>
+      <c r="L123">
+        <v>314.65793000000002</v>
+      </c>
+      <c r="M123" s="22">
+        <v>405.78410000000002</v>
+      </c>
+    </row>
+    <row r="124" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B124" s="3">
+        <v>17</v>
+      </c>
+      <c r="C124">
+        <v>105.21708</v>
+      </c>
+      <c r="D124">
+        <v>111.81041999999999</v>
+      </c>
+      <c r="E124">
+        <v>53.175640000000001</v>
+      </c>
+      <c r="F124" s="22">
+        <v>52.785946000000003</v>
+      </c>
+      <c r="I124" s="3">
+        <v>17</v>
+      </c>
+      <c r="J124">
+        <v>850.83079999999995</v>
+      </c>
+      <c r="K124">
+        <v>1234.3503000000001</v>
+      </c>
+      <c r="L124">
+        <v>469.05157000000003</v>
+      </c>
+      <c r="M124" s="22">
+        <v>348.78674000000001</v>
+      </c>
+    </row>
+    <row r="125" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B125" s="3">
+        <v>18</v>
+      </c>
+      <c r="C125">
+        <v>104.76882000000001</v>
+      </c>
+      <c r="D125">
+        <v>108.55083999999999</v>
+      </c>
+      <c r="E125">
+        <v>47.481020000000001</v>
+      </c>
+      <c r="F125" s="22">
+        <v>52.785946000000003</v>
+      </c>
+      <c r="I125" s="3">
+        <v>18</v>
+      </c>
+      <c r="J125">
+        <v>848.53796</v>
+      </c>
+      <c r="K125">
+        <v>1155.9736</v>
+      </c>
+      <c r="L125">
+        <v>328.47770000000003</v>
+      </c>
+      <c r="M125" s="22">
+        <v>348.78674000000001</v>
+      </c>
+    </row>
+    <row r="126" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B126" s="3">
+        <v>19</v>
+      </c>
+      <c r="C126">
+        <v>106.630325</v>
+      </c>
+      <c r="D126">
+        <v>104.52666499999999</v>
+      </c>
+      <c r="E126">
+        <v>50.759689999999999</v>
+      </c>
+      <c r="F126" s="22">
+        <v>53.698017</v>
+      </c>
+      <c r="I126" s="3">
+        <v>19</v>
+      </c>
+      <c r="J126">
+        <v>873.19010000000003</v>
+      </c>
+      <c r="K126">
+        <v>1219.7352000000001</v>
+      </c>
+      <c r="L126">
+        <v>352.26297</v>
+      </c>
+      <c r="M126" s="22">
+        <v>409.58987000000002</v>
+      </c>
+    </row>
+    <row r="127" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B127" s="3">
+        <v>20</v>
+      </c>
+      <c r="C127">
+        <v>103.77023</v>
+      </c>
+      <c r="D127">
+        <v>110.76685000000001</v>
+      </c>
+      <c r="E127">
+        <v>43.548115000000003</v>
+      </c>
+      <c r="F127" s="22">
+        <v>54.957194999999999</v>
+      </c>
+      <c r="I127" s="3">
+        <v>20</v>
+      </c>
+      <c r="J127">
+        <v>821.82605000000001</v>
+      </c>
+      <c r="K127">
+        <v>1283.9675</v>
+      </c>
+      <c r="L127">
+        <v>387.11185</v>
+      </c>
+      <c r="M127" s="22">
+        <v>378.08123999999998</v>
+      </c>
+    </row>
+    <row r="128" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B128" s="3">
+        <v>21</v>
+      </c>
+      <c r="C128">
+        <v>105.10419</v>
+      </c>
+      <c r="D128">
+        <v>99.526600000000002</v>
+      </c>
+      <c r="E128">
+        <v>46.637093</v>
+      </c>
+      <c r="F128" s="22">
+        <v>51.061065999999997</v>
+      </c>
+      <c r="I128" s="3">
+        <v>21</v>
+      </c>
+      <c r="J128">
+        <v>830.92034999999998</v>
+      </c>
+      <c r="K128">
+        <v>1193.2397000000001</v>
+      </c>
+      <c r="L128">
+        <v>388.80700000000002</v>
+      </c>
+      <c r="M128" s="22">
+        <v>402.26366999999999</v>
+      </c>
+    </row>
+    <row r="129" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B129" s="3">
+        <v>22</v>
+      </c>
+      <c r="C129">
+        <v>106.628075</v>
+      </c>
+      <c r="D129">
+        <v>105.11394</v>
+      </c>
+      <c r="E129">
+        <v>51.495925999999997</v>
+      </c>
+      <c r="F129" s="22">
+        <v>51.67821</v>
+      </c>
+      <c r="I129" s="3">
+        <v>22</v>
+      </c>
+      <c r="J129">
+        <v>842.31537000000003</v>
+      </c>
+      <c r="K129">
+        <v>1245.5833</v>
+      </c>
+      <c r="L129">
+        <v>446.596</v>
+      </c>
+      <c r="M129" s="22">
+        <v>354.50873000000001</v>
+      </c>
+    </row>
+    <row r="130" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B130" s="3">
+        <v>23</v>
+      </c>
+      <c r="C130">
+        <v>105.91249000000001</v>
+      </c>
+      <c r="D130">
+        <v>100.64987000000001</v>
+      </c>
+      <c r="E130">
+        <v>43.598460000000003</v>
+      </c>
+      <c r="F130" s="22">
+        <v>55.651775000000001</v>
+      </c>
+      <c r="I130" s="3">
+        <v>23</v>
+      </c>
+      <c r="J130">
+        <v>843.06939999999997</v>
+      </c>
+      <c r="K130">
+        <v>1056.3385000000001</v>
+      </c>
+      <c r="L130">
+        <v>326.49306999999999</v>
+      </c>
+      <c r="M130" s="22">
+        <v>378.61822999999998</v>
+      </c>
+    </row>
+    <row r="131" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B131" s="3">
+        <v>24</v>
+      </c>
+      <c r="C131">
+        <v>104.93330400000001</v>
+      </c>
+      <c r="D131">
+        <v>108.68044</v>
+      </c>
+      <c r="E131">
+        <v>39.809097000000001</v>
+      </c>
+      <c r="F131" s="22">
+        <v>55.557876999999998</v>
+      </c>
+      <c r="I131" s="3">
+        <v>24</v>
+      </c>
+      <c r="J131">
+        <v>862.47722999999996</v>
+      </c>
+      <c r="K131">
+        <v>1149.9952000000001</v>
+      </c>
+      <c r="L131">
+        <v>284.30290000000002</v>
+      </c>
+      <c r="M131" s="22">
+        <v>382.36649999999997</v>
+      </c>
+    </row>
+    <row r="132" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B132" s="3">
+        <v>25</v>
+      </c>
+      <c r="C132">
+        <v>106.58095</v>
+      </c>
+      <c r="D132">
+        <v>108.68044</v>
+      </c>
+      <c r="E132">
+        <v>45.161655000000003</v>
+      </c>
+      <c r="F132" s="22">
+        <v>57.308</v>
+      </c>
+      <c r="I132" s="3">
+        <v>25</v>
+      </c>
+      <c r="J132">
+        <v>844.2912</v>
+      </c>
+      <c r="K132">
+        <v>1149.9952000000001</v>
+      </c>
+      <c r="L132">
+        <v>364.41140000000001</v>
+      </c>
+      <c r="M132" s="22">
+        <v>394.10424999999998</v>
+      </c>
+    </row>
+    <row r="133" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B133" s="3">
+        <v>26</v>
+      </c>
+      <c r="C133">
+        <v>105.04031000000001</v>
+      </c>
+      <c r="D133">
+        <v>111.91848</v>
+      </c>
+      <c r="E133">
+        <v>38.875587000000003</v>
+      </c>
+      <c r="F133" s="22">
+        <v>48.952263000000002</v>
+      </c>
+      <c r="I133" s="3">
+        <v>26</v>
+      </c>
+      <c r="J133">
+        <v>840.46320000000003</v>
+      </c>
+      <c r="K133">
+        <v>1190.8681999999999</v>
+      </c>
+      <c r="L133">
+        <v>284.19913000000003</v>
+      </c>
+      <c r="M133" s="22">
+        <v>356.2396</v>
+      </c>
+    </row>
+    <row r="134" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B134" s="3">
+        <v>27</v>
+      </c>
+      <c r="C134">
+        <v>107.20283999999999</v>
+      </c>
+      <c r="D134">
+        <v>109.95401</v>
+      </c>
+      <c r="E134">
+        <v>42.027050000000003</v>
+      </c>
+      <c r="F134" s="22">
+        <v>51.791027</v>
+      </c>
+      <c r="I134" s="3">
+        <v>27</v>
+      </c>
+      <c r="J134">
+        <v>859.87683000000004</v>
+      </c>
+      <c r="K134">
+        <v>1205.2101</v>
+      </c>
+      <c r="L134">
+        <v>361.70891999999998</v>
+      </c>
+      <c r="M134" s="22">
+        <v>368.20386000000002</v>
+      </c>
+    </row>
+    <row r="135" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B135" s="3">
+        <v>28</v>
+      </c>
+      <c r="C135">
+        <v>102.98267</v>
+      </c>
+      <c r="D135">
+        <v>112.64391999999999</v>
+      </c>
+      <c r="E135">
+        <v>41.353287000000002</v>
+      </c>
+      <c r="F135" s="22">
+        <v>54.411082999999998</v>
+      </c>
+      <c r="I135" s="3">
+        <v>28</v>
+      </c>
+      <c r="J135">
+        <v>846.31713999999999</v>
+      </c>
+      <c r="K135">
+        <v>1214.9241999999999</v>
+      </c>
+      <c r="L135">
+        <v>320.42901999999998</v>
+      </c>
+      <c r="M135" s="22">
+        <v>365.50220000000002</v>
+      </c>
+    </row>
+    <row r="136" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B136" s="3">
+        <v>29</v>
+      </c>
+      <c r="C136">
+        <v>104.40767</v>
+      </c>
+      <c r="D136">
+        <v>106.72185500000001</v>
+      </c>
+      <c r="E136">
+        <v>44.339123000000001</v>
+      </c>
+      <c r="F136" s="22">
+        <v>57.732917999999998</v>
+      </c>
+      <c r="I136" s="3">
+        <v>29</v>
+      </c>
+      <c r="J136">
+        <v>852.83105</v>
+      </c>
+      <c r="K136">
+        <v>1228.7942</v>
+      </c>
+      <c r="L136">
+        <v>405.76265999999998</v>
+      </c>
+      <c r="M136" s="22">
+        <v>394.14337</v>
+      </c>
+    </row>
+    <row r="137" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B137" s="3">
+        <v>30</v>
+      </c>
+      <c r="C137">
+        <v>103.2944</v>
+      </c>
+      <c r="D137">
+        <v>103.11546</v>
+      </c>
+      <c r="E137">
+        <v>40.263599999999997</v>
+      </c>
+      <c r="F137" s="23">
+        <v>52.211730000000003</v>
+      </c>
+      <c r="I137" s="3">
+        <v>30</v>
+      </c>
+      <c r="J137">
+        <v>867.64819999999997</v>
+      </c>
+      <c r="K137">
+        <v>1141.9049</v>
+      </c>
+      <c r="L137">
+        <v>289.1266</v>
+      </c>
+      <c r="M137" s="23">
+        <v>371.00366000000002</v>
+      </c>
+    </row>
+    <row r="138" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B138" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C138" s="4">
+        <f>AVERAGE(C108:C137)</f>
+        <v>104.8950614</v>
+      </c>
+      <c r="D138" s="4">
+        <f t="shared" ref="D138:F138" si="4">AVERAGE(D108:D137)</f>
+        <v>108.52719036666667</v>
+      </c>
+      <c r="E138" s="4">
+        <f t="shared" si="4"/>
+        <v>44.199893533333331</v>
+      </c>
+      <c r="F138" s="4">
+        <f t="shared" si="4"/>
+        <v>53.490033199999992</v>
+      </c>
+      <c r="I138" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J138" s="4">
+        <f t="shared" ref="J138" si="5">AVERAGE(J108:J137)</f>
+        <v>851.83438566666678</v>
+      </c>
+      <c r="K138" s="4">
+        <f t="shared" ref="K138" si="6">AVERAGE(K108:K137)</f>
+        <v>1184.7978266666664</v>
+      </c>
+      <c r="L138" s="4">
+        <f t="shared" ref="L138" si="7">AVERAGE(L108:L137)</f>
+        <v>350.66859700000003</v>
+      </c>
+      <c r="M138" s="4">
+        <f t="shared" ref="M138" si="8">AVERAGE(M108:M137)</f>
+        <v>376.23463133333337</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B62:F62"/>
-    <mergeCell ref="I62:M62"/>
-    <mergeCell ref="B47:F47"/>
-    <mergeCell ref="I47:M47"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="C48:F48"/>
-    <mergeCell ref="I48:I49"/>
-    <mergeCell ref="J48:M48"/>
+    <mergeCell ref="C106:F106"/>
+    <mergeCell ref="J106:M106"/>
+    <mergeCell ref="B68:F68"/>
+    <mergeCell ref="I68:M68"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:F69"/>
+    <mergeCell ref="I69:I70"/>
+    <mergeCell ref="J69:M69"/>
     <mergeCell ref="C32:F32"/>
     <mergeCell ref="B31:F31"/>
     <mergeCell ref="I31:M31"/>
@@ -11485,4 +13478,260 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>52.224364999999999</v>
+      </c>
+      <c r="B1">
+        <v>371.65035999999998</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>54.899326000000002</v>
+      </c>
+      <c r="B2">
+        <v>400.85059999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>53.940159999999999</v>
+      </c>
+      <c r="B3">
+        <v>365.06387000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>56.671818000000002</v>
+      </c>
+      <c r="B4">
+        <v>403.14382999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>56.245780000000003</v>
+      </c>
+      <c r="B5">
+        <v>384.58019999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>54.518509999999999</v>
+      </c>
+      <c r="B6">
+        <v>368.74151999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>50.328299999999999</v>
+      </c>
+      <c r="B7">
+        <v>341.02145000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>53.146811999999997</v>
+      </c>
+      <c r="B8">
+        <v>353.10512999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>52.720528000000002</v>
+      </c>
+      <c r="B9">
+        <v>348.54712000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>51.680929999999996</v>
+      </c>
+      <c r="B10">
+        <v>392.99074999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>51.363444999999999</v>
+      </c>
+      <c r="B11">
+        <v>395.49448000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>51.447809999999997</v>
+      </c>
+      <c r="B12">
+        <v>362.68889999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>54.747855999999999</v>
+      </c>
+      <c r="B13">
+        <v>349.39510000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>54.834507000000002</v>
+      </c>
+      <c r="B14">
+        <v>381.38326999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>55.307200000000002</v>
+      </c>
+      <c r="B15">
+        <v>410.39960000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>50.040596000000001</v>
+      </c>
+      <c r="B16">
+        <v>405.78410000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>52.785946000000003</v>
+      </c>
+      <c r="B17">
+        <v>348.78674000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>52.785946000000003</v>
+      </c>
+      <c r="B18">
+        <v>348.78674000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>53.698017</v>
+      </c>
+      <c r="B19">
+        <v>409.58987000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>54.957194999999999</v>
+      </c>
+      <c r="B20">
+        <v>378.08123999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>51.061065999999997</v>
+      </c>
+      <c r="B21">
+        <v>402.26366999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>51.67821</v>
+      </c>
+      <c r="B22">
+        <v>354.50873000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>55.651775000000001</v>
+      </c>
+      <c r="B23">
+        <v>378.61822999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>55.557876999999998</v>
+      </c>
+      <c r="B24">
+        <v>382.36649999999997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>57.308</v>
+      </c>
+      <c r="B25">
+        <v>394.10424999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>48.952263000000002</v>
+      </c>
+      <c r="B26">
+        <v>356.2396</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>51.791027</v>
+      </c>
+      <c r="B27">
+        <v>368.20386000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>54.411082999999998</v>
+      </c>
+      <c r="B28">
+        <v>365.50220000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>57.732917999999998</v>
+      </c>
+      <c r="B29">
+        <v>394.14337</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>52.211730000000003</v>
+      </c>
+      <c r="B30">
+        <v>371.00366000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test results/Hasil Pengujian Waiting Time.xlsx
+++ b/Test results/Hasil Pengujian Waiting Time.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1174" uniqueCount="450">
   <si>
     <t>No</t>
   </si>
@@ -1524,15 +1525,90 @@
   <si>
     <t>Deadlock</t>
   </si>
+  <si>
+    <t>LLLL</t>
+  </si>
+  <si>
+    <t>LLLM</t>
+  </si>
+  <si>
+    <t>LLHL</t>
+  </si>
+  <si>
+    <t>LLHM</t>
+  </si>
+  <si>
+    <t>LMHL</t>
+  </si>
+  <si>
+    <t>LHHL</t>
+  </si>
+  <si>
+    <t>Initial State</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>Transition Probability</t>
+  </si>
+  <si>
+    <t>Next State</t>
+  </si>
+  <si>
+    <t>LHHM</t>
+  </si>
+  <si>
+    <t>MHHL</t>
+  </si>
+  <si>
+    <t>MMHM</t>
+  </si>
+  <si>
+    <t>HMHM</t>
+  </si>
+  <si>
+    <t>HHHL</t>
+  </si>
+  <si>
+    <t>MLML</t>
+  </si>
+  <si>
+    <t>LMLM</t>
+  </si>
+  <si>
+    <t>MMLL</t>
+  </si>
+  <si>
+    <t>LHML</t>
+  </si>
+  <si>
+    <t>LMMM</t>
+  </si>
+  <si>
+    <t>MLLL</t>
+  </si>
+  <si>
+    <t>MLLM</t>
+  </si>
+  <si>
+    <t>MMLM</t>
+  </si>
+  <si>
+    <t>Spawn Rate</t>
+  </si>
+  <si>
+    <t>Seed</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.00000"/>
+    <numFmt numFmtId="164" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1548,6 +1624,27 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1728,7 +1825,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1738,10 +1835,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1751,11 +1848,26 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1771,21 +1883,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1949,11 +2052,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="447425360"/>
-        <c:axId val="447424240"/>
+        <c:axId val="173433664"/>
+        <c:axId val="173434224"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="447425360"/>
+        <c:axId val="173433664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1996,7 +2099,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="447424240"/>
+        <c:crossAx val="173434224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2004,7 +2107,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="447424240"/>
+        <c:axId val="173434224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2055,7 +2158,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="447425360"/>
+        <c:crossAx val="173433664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2250,11 +2353,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="222916784"/>
-        <c:axId val="447427600"/>
+        <c:axId val="86461504"/>
+        <c:axId val="86463744"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="222916784"/>
+        <c:axId val="86461504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2297,7 +2400,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="447427600"/>
+        <c:crossAx val="86463744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2305,7 +2408,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="447427600"/>
+        <c:axId val="86463744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2356,7 +2459,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="222916784"/>
+        <c:crossAx val="86461504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2551,11 +2654,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="223967248"/>
-        <c:axId val="223967808"/>
+        <c:axId val="178884288"/>
+        <c:axId val="178884848"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="223967248"/>
+        <c:axId val="178884288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2598,7 +2701,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="223967808"/>
+        <c:crossAx val="178884848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2606,7 +2709,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="223967808"/>
+        <c:axId val="178884848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2657,7 +2760,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="223967248"/>
+        <c:crossAx val="178884288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2721,7 +2824,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2852,11 +2954,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="222916224"/>
-        <c:axId val="222918464"/>
+        <c:axId val="178887088"/>
+        <c:axId val="178887648"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="222916224"/>
+        <c:axId val="178887088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2899,7 +3001,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="222918464"/>
+        <c:crossAx val="178887648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2907,7 +3009,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="222918464"/>
+        <c:axId val="178887648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2958,7 +3060,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="222916224"/>
+        <c:crossAx val="178887088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3153,11 +3255,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="52710304"/>
-        <c:axId val="446741360"/>
+        <c:axId val="178889888"/>
+        <c:axId val="178890448"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="52710304"/>
+        <c:axId val="178889888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3200,7 +3302,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="446741360"/>
+        <c:crossAx val="178890448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3208,7 +3310,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="446741360"/>
+        <c:axId val="178890448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3259,7 +3361,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="52710304"/>
+        <c:crossAx val="178889888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3454,11 +3556,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="361728496"/>
-        <c:axId val="447428720"/>
+        <c:axId val="178892688"/>
+        <c:axId val="178893248"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="361728496"/>
+        <c:axId val="178892688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3501,7 +3603,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="447428720"/>
+        <c:crossAx val="178893248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3509,7 +3611,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="447428720"/>
+        <c:axId val="178893248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3560,7 +3662,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="361728496"/>
+        <c:crossAx val="178892688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8469,8 +8571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B35:S163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K85" sqref="K85"/>
+    <sheetView topLeftCell="A23" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36:D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8495,47 +8597,47 @@
   </cols>
   <sheetData>
     <row r="35" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B35" s="17" t="s">
+      <c r="B35" s="32" t="s">
         <v>423</v>
       </c>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="32"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="27"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B36" s="4"/>
-      <c r="C36" s="29" t="s">
+      <c r="C36" s="24" t="s">
         <v>417</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>416</v>
       </c>
-      <c r="E36" s="33" t="s">
+      <c r="E36" s="28" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B37" s="30" t="s">
+      <c r="B37" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C37" s="28" t="s">
+      <c r="C37" s="23" t="s">
         <v>418</v>
       </c>
-      <c r="D37" s="23">
+      <c r="D37" s="18">
         <v>0.9</v>
       </c>
-      <c r="E37" s="28" t="s">
+      <c r="E37" s="23" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B38" s="30" t="s">
+      <c r="B38" s="25" t="s">
         <v>7</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="D38" s="25">
+      <c r="D38" s="20">
         <v>0.9</v>
       </c>
       <c r="E38" s="1" t="s">
@@ -8543,13 +8645,13 @@
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B39" s="30" t="s">
+      <c r="B39" s="25" t="s">
         <v>414</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="D39" s="25">
+      <c r="D39" s="20">
         <v>0.5</v>
       </c>
       <c r="E39" s="1" t="s">
@@ -8557,69 +8659,69 @@
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B40" s="31" t="s">
+      <c r="B40" s="26" t="s">
         <v>415</v>
       </c>
-      <c r="C40" s="22" t="s">
+      <c r="C40" s="17" t="s">
         <v>420</v>
       </c>
-      <c r="D40" s="26">
+      <c r="D40" s="21">
         <v>0.2</v>
       </c>
-      <c r="E40" s="22" t="s">
+      <c r="E40" s="17" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="56" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B56" s="17" t="s">
+      <c r="B56" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="C56" s="17"/>
-      <c r="D56" s="17"/>
-      <c r="E56" s="17"/>
-      <c r="F56" s="17"/>
-      <c r="G56" s="17"/>
-      <c r="H56" s="17"/>
-      <c r="I56" s="17"/>
-      <c r="L56" s="17" t="s">
+      <c r="C56" s="32"/>
+      <c r="D56" s="32"/>
+      <c r="E56" s="32"/>
+      <c r="F56" s="32"/>
+      <c r="G56" s="32"/>
+      <c r="H56" s="32"/>
+      <c r="I56" s="32"/>
+      <c r="L56" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="M56" s="17"/>
-      <c r="N56" s="17"/>
-      <c r="O56" s="17"/>
-      <c r="P56" s="17"/>
-      <c r="Q56" s="17"/>
-      <c r="R56" s="17"/>
-      <c r="S56" s="17"/>
+      <c r="M56" s="32"/>
+      <c r="N56" s="32"/>
+      <c r="O56" s="32"/>
+      <c r="P56" s="32"/>
+      <c r="Q56" s="32"/>
+      <c r="R56" s="32"/>
+      <c r="S56" s="32"/>
     </row>
     <row r="57" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B57" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C57" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="D57" s="20"/>
-      <c r="E57" s="20"/>
-      <c r="F57" s="20"/>
-      <c r="G57" s="20"/>
-      <c r="H57" s="20"/>
-      <c r="I57" s="21"/>
-      <c r="L57" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="M57" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="N57" s="20"/>
-      <c r="O57" s="20"/>
-      <c r="P57" s="20"/>
-      <c r="Q57" s="20"/>
-      <c r="R57" s="20"/>
-      <c r="S57" s="21"/>
+      <c r="B57" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C57" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="D57" s="35"/>
+      <c r="E57" s="35"/>
+      <c r="F57" s="35"/>
+      <c r="G57" s="35"/>
+      <c r="H57" s="35"/>
+      <c r="I57" s="36"/>
+      <c r="L57" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="M57" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="N57" s="35"/>
+      <c r="O57" s="35"/>
+      <c r="P57" s="35"/>
+      <c r="Q57" s="35"/>
+      <c r="R57" s="35"/>
+      <c r="S57" s="36"/>
     </row>
     <row r="58" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B58" s="18"/>
+      <c r="B58" s="33"/>
       <c r="C58" s="2" t="s">
         <v>2</v>
       </c>
@@ -8641,7 +8743,7 @@
       <c r="I58" s="13" t="s">
         <v>415</v>
       </c>
-      <c r="L58" s="18"/>
+      <c r="L58" s="33"/>
       <c r="M58" s="15" t="s">
         <v>2</v>
       </c>
@@ -8680,10 +8782,10 @@
       <c r="F59" s="14">
         <v>22.934581999999999</v>
       </c>
-      <c r="G59" s="24">
+      <c r="G59" s="19">
         <v>11.8324795</v>
       </c>
-      <c r="H59" s="24">
+      <c r="H59" s="19">
         <v>12.246387500000001</v>
       </c>
       <c r="I59" s="12">
@@ -8705,10 +8807,10 @@
       <c r="P59" s="14">
         <v>36.821243000000003</v>
       </c>
-      <c r="Q59" s="24">
+      <c r="Q59" s="19">
         <v>19.10051</v>
       </c>
-      <c r="R59" s="24">
+      <c r="R59" s="19">
         <v>19.804117000000002</v>
       </c>
       <c r="S59" s="12">
@@ -10131,10 +10233,10 @@
       <c r="F88" s="8">
         <v>23.547499999999999</v>
       </c>
-      <c r="G88" s="27">
+      <c r="G88" s="22">
         <v>11.50991</v>
       </c>
-      <c r="H88" s="27">
+      <c r="H88" s="22">
         <v>14.971163000000001</v>
       </c>
       <c r="I88" s="9">
@@ -10155,10 +10257,10 @@
       <c r="P88" s="8">
         <v>37.957165000000003</v>
       </c>
-      <c r="Q88" s="27">
+      <c r="Q88" s="22">
         <v>18.688556999999999</v>
       </c>
-      <c r="R88" s="27">
+      <c r="R88" s="22">
         <v>25.245965999999999</v>
       </c>
       <c r="S88" s="9">
@@ -10169,116 +10271,116 @@
       <c r="B89" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C89" s="34">
+      <c r="C89" s="29">
         <f>AVERAGE(C59:C88)</f>
         <v>14.389538666666665</v>
       </c>
-      <c r="D89" s="34">
+      <c r="D89" s="29">
         <f t="shared" ref="D89:I89" si="0">AVERAGE(D59:D88)</f>
         <v>38.982789499999988</v>
       </c>
-      <c r="E89" s="34">
+      <c r="E89" s="29">
         <f t="shared" si="0"/>
         <v>6.0526774533333336</v>
       </c>
-      <c r="F89" s="35">
+      <c r="F89" s="30">
         <f t="shared" si="0"/>
         <v>23.429515866666666</v>
       </c>
-      <c r="G89" s="36">
+      <c r="G89" s="31">
         <f t="shared" si="0"/>
         <v>12.2695416</v>
       </c>
-      <c r="H89" s="36">
+      <c r="H89" s="31">
         <f t="shared" si="0"/>
         <v>13.167436616666665</v>
       </c>
-      <c r="I89" s="34">
+      <c r="I89" s="29">
         <f t="shared" si="0"/>
         <v>12.583111000000002</v>
       </c>
       <c r="L89" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="M89" s="34">
+      <c r="M89" s="29">
         <f>AVERAGE(M59:M88)</f>
         <v>23.239544333333335</v>
       </c>
-      <c r="N89" s="34">
+      <c r="N89" s="29">
         <f>AVERAGE(N59:N88)</f>
         <v>63.969915600000007</v>
       </c>
-      <c r="O89" s="34">
+      <c r="O89" s="29">
         <f>AVERAGE(O59:O88)</f>
         <v>9.9088259833333314</v>
       </c>
-      <c r="P89" s="35">
+      <c r="P89" s="30">
         <f>AVERAGE(P59:P88)</f>
         <v>37.569765633333326</v>
       </c>
-      <c r="Q89" s="36">
+      <c r="Q89" s="31">
         <f t="shared" ref="Q89:S89" si="1">AVERAGE(Q59:Q88)</f>
         <v>19.798683099999998</v>
       </c>
-      <c r="R89" s="36">
+      <c r="R89" s="31">
         <f t="shared" si="1"/>
         <v>24.520111366666658</v>
       </c>
-      <c r="S89" s="34">
+      <c r="S89" s="29">
         <f t="shared" si="1"/>
         <v>21.096479633333331</v>
       </c>
     </row>
     <row r="93" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B93" s="17" t="s">
+      <c r="B93" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="C93" s="17"/>
-      <c r="D93" s="17"/>
-      <c r="E93" s="17"/>
-      <c r="F93" s="17"/>
-      <c r="G93" s="17"/>
-      <c r="H93" s="17"/>
-      <c r="I93" s="17"/>
-      <c r="L93" s="17" t="s">
+      <c r="C93" s="32"/>
+      <c r="D93" s="32"/>
+      <c r="E93" s="32"/>
+      <c r="F93" s="32"/>
+      <c r="G93" s="32"/>
+      <c r="H93" s="32"/>
+      <c r="I93" s="32"/>
+      <c r="L93" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="M93" s="17"/>
-      <c r="N93" s="17"/>
-      <c r="O93" s="17"/>
-      <c r="P93" s="17"/>
-      <c r="Q93" s="17"/>
-      <c r="R93" s="17"/>
-      <c r="S93" s="17"/>
+      <c r="M93" s="32"/>
+      <c r="N93" s="32"/>
+      <c r="O93" s="32"/>
+      <c r="P93" s="32"/>
+      <c r="Q93" s="32"/>
+      <c r="R93" s="32"/>
+      <c r="S93" s="32"/>
     </row>
     <row r="94" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B94" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C94" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="D94" s="20"/>
-      <c r="E94" s="20"/>
-      <c r="F94" s="20"/>
-      <c r="G94" s="20"/>
-      <c r="H94" s="20"/>
-      <c r="I94" s="21"/>
-      <c r="L94" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="M94" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="N94" s="20"/>
-      <c r="O94" s="20"/>
-      <c r="P94" s="20"/>
-      <c r="Q94" s="20"/>
-      <c r="R94" s="20"/>
-      <c r="S94" s="21"/>
+      <c r="B94" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C94" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="D94" s="35"/>
+      <c r="E94" s="35"/>
+      <c r="F94" s="35"/>
+      <c r="G94" s="35"/>
+      <c r="H94" s="35"/>
+      <c r="I94" s="36"/>
+      <c r="L94" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="M94" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="N94" s="35"/>
+      <c r="O94" s="35"/>
+      <c r="P94" s="35"/>
+      <c r="Q94" s="35"/>
+      <c r="R94" s="35"/>
+      <c r="S94" s="36"/>
     </row>
     <row r="95" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B95" s="18"/>
+      <c r="B95" s="33"/>
       <c r="C95" s="15" t="s">
         <v>2</v>
       </c>
@@ -10300,7 +10402,7 @@
       <c r="I95" s="13" t="s">
         <v>415</v>
       </c>
-      <c r="L95" s="18"/>
+      <c r="L95" s="33"/>
       <c r="M95" s="15" t="s">
         <v>2</v>
       </c>
@@ -10339,10 +10441,10 @@
       <c r="F96" s="14">
         <v>43.558459999999997</v>
       </c>
-      <c r="G96" s="24">
+      <c r="G96" s="19">
         <v>37.853700000000003</v>
       </c>
-      <c r="H96" s="24">
+      <c r="H96" s="19">
         <v>48.571655</v>
       </c>
       <c r="I96" s="12" t="s">
@@ -10363,10 +10465,10 @@
       <c r="P96" s="14">
         <v>118.48162000000001</v>
       </c>
-      <c r="Q96" s="24">
+      <c r="Q96" s="19">
         <v>177.74876</v>
       </c>
-      <c r="R96" s="24">
+      <c r="R96" s="19">
         <v>245.19324</v>
       </c>
       <c r="S96" s="12" t="s">
@@ -11789,10 +11891,10 @@
       <c r="F125" s="8">
         <v>36.165965999999997</v>
       </c>
-      <c r="G125" s="27">
+      <c r="G125" s="22">
         <v>38.519474000000002</v>
       </c>
-      <c r="H125" s="27">
+      <c r="H125" s="22">
         <v>47.925483999999997</v>
       </c>
       <c r="I125" s="9" t="s">
@@ -11813,10 +11915,10 @@
       <c r="P125" s="8">
         <v>110.38365</v>
       </c>
-      <c r="Q125" s="27">
+      <c r="Q125" s="22">
         <v>191.23273</v>
       </c>
-      <c r="R125" s="27">
+      <c r="R125" s="22">
         <v>206.77340000000001</v>
       </c>
       <c r="S125" s="9" t="s">
@@ -11827,117 +11929,117 @@
       <c r="B126" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C126" s="34">
+      <c r="C126" s="29">
         <f>AVERAGE(C96:C125)</f>
         <v>85.010294233333354</v>
       </c>
-      <c r="D126" s="34">
+      <c r="D126" s="29">
         <f>AVERAGE(D96:D125)</f>
         <v>106.19462586666667</v>
       </c>
-      <c r="E126" s="34">
+      <c r="E126" s="29">
         <f t="shared" ref="E126:I126" si="2">AVERAGE(E96:E125)</f>
         <v>48.860209866666672</v>
       </c>
-      <c r="F126" s="35">
+      <c r="F126" s="30">
         <f t="shared" si="2"/>
         <v>40.916587266666674</v>
       </c>
-      <c r="G126" s="36">
+      <c r="G126" s="31">
         <f t="shared" si="2"/>
         <v>39.536878866666669</v>
       </c>
-      <c r="H126" s="36">
+      <c r="H126" s="31">
         <f t="shared" si="2"/>
         <v>45.728136099999993</v>
       </c>
-      <c r="I126" s="34" t="e">
+      <c r="I126" s="29" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L126" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="M126" s="34">
+      <c r="M126" s="29">
         <f>AVERAGE(M96:M125)</f>
         <v>312.06754166666661</v>
       </c>
-      <c r="N126" s="34">
+      <c r="N126" s="29">
         <f t="shared" ref="N126:S126" si="3">AVERAGE(N96:N125)</f>
         <v>724.35037799999998</v>
       </c>
-      <c r="O126" s="34">
+      <c r="O126" s="29">
         <f t="shared" si="3"/>
         <v>151.68852333333334</v>
       </c>
-      <c r="P126" s="35">
+      <c r="P126" s="30">
         <f t="shared" si="3"/>
         <v>123.89772226666669</v>
       </c>
-      <c r="Q126" s="36">
+      <c r="Q126" s="31">
         <f t="shared" si="3"/>
         <v>186.66516966666666</v>
       </c>
-      <c r="R126" s="36">
+      <c r="R126" s="31">
         <f t="shared" si="3"/>
         <v>267.980887</v>
       </c>
-      <c r="S126" s="34" t="e">
+      <c r="S126" s="29" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="130" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B130" s="17" t="s">
+      <c r="B130" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="C130" s="17"/>
-      <c r="D130" s="17"/>
-      <c r="E130" s="17"/>
-      <c r="F130" s="17"/>
-      <c r="G130" s="17"/>
-      <c r="H130" s="17"/>
-      <c r="I130" s="17"/>
-      <c r="L130" s="17" t="s">
+      <c r="C130" s="32"/>
+      <c r="D130" s="32"/>
+      <c r="E130" s="32"/>
+      <c r="F130" s="32"/>
+      <c r="G130" s="32"/>
+      <c r="H130" s="32"/>
+      <c r="I130" s="32"/>
+      <c r="L130" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="M130" s="17"/>
-      <c r="N130" s="17"/>
-      <c r="O130" s="17"/>
-      <c r="P130" s="17"/>
-      <c r="Q130" s="17"/>
-      <c r="R130" s="17"/>
-      <c r="S130" s="17"/>
+      <c r="M130" s="32"/>
+      <c r="N130" s="32"/>
+      <c r="O130" s="32"/>
+      <c r="P130" s="32"/>
+      <c r="Q130" s="32"/>
+      <c r="R130" s="32"/>
+      <c r="S130" s="32"/>
     </row>
     <row r="131" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B131" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C131" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="D131" s="20"/>
-      <c r="E131" s="20"/>
-      <c r="F131" s="20"/>
-      <c r="G131" s="20"/>
-      <c r="H131" s="20"/>
-      <c r="I131" s="21"/>
+      <c r="B131" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C131" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="D131" s="35"/>
+      <c r="E131" s="35"/>
+      <c r="F131" s="35"/>
+      <c r="G131" s="35"/>
+      <c r="H131" s="35"/>
+      <c r="I131" s="36"/>
       <c r="K131" s="11"/>
-      <c r="L131" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="M131" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="N131" s="20"/>
-      <c r="O131" s="20"/>
-      <c r="P131" s="20"/>
-      <c r="Q131" s="20"/>
-      <c r="R131" s="20"/>
-      <c r="S131" s="21"/>
+      <c r="L131" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="M131" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="N131" s="35"/>
+      <c r="O131" s="35"/>
+      <c r="P131" s="35"/>
+      <c r="Q131" s="35"/>
+      <c r="R131" s="35"/>
+      <c r="S131" s="36"/>
     </row>
     <row r="132" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B132" s="18"/>
+      <c r="B132" s="33"/>
       <c r="C132" s="15" t="s">
         <v>2</v>
       </c>
@@ -11959,7 +12061,7 @@
       <c r="I132" s="13" t="s">
         <v>415</v>
       </c>
-      <c r="L132" s="18"/>
+      <c r="L132" s="33"/>
       <c r="M132" s="15" t="s">
         <v>2</v>
       </c>
@@ -11998,10 +12100,10 @@
       <c r="F133" s="14">
         <v>52.224364999999999</v>
       </c>
-      <c r="G133" s="24">
+      <c r="G133" s="19">
         <v>36.896254999999996</v>
       </c>
-      <c r="H133" s="24">
+      <c r="H133" s="19">
         <v>51.939297000000003</v>
       </c>
       <c r="I133" s="12" t="s">
@@ -12022,10 +12124,10 @@
       <c r="P133" s="14">
         <v>371.65035999999998</v>
       </c>
-      <c r="Q133" s="24">
+      <c r="Q133" s="19">
         <v>339.23635999999999</v>
       </c>
-      <c r="R133" s="24">
+      <c r="R133" s="19">
         <v>498.25607000000002</v>
       </c>
       <c r="S133" s="12" t="s">
@@ -13448,10 +13550,10 @@
       <c r="F162" s="8">
         <v>52.211730000000003</v>
       </c>
-      <c r="G162" s="27">
+      <c r="G162" s="22">
         <v>36.277929999999998</v>
       </c>
-      <c r="H162" s="27">
+      <c r="H162" s="22">
         <v>52.29354</v>
       </c>
       <c r="I162" s="9" t="s">
@@ -13472,10 +13574,10 @@
       <c r="P162" s="8">
         <v>371.00366000000002</v>
       </c>
-      <c r="Q162" s="27">
+      <c r="Q162" s="22">
         <v>297.25371999999999</v>
       </c>
-      <c r="R162" s="27">
+      <c r="R162" s="22">
         <v>476.55720000000002</v>
       </c>
       <c r="S162" s="9" t="s">
@@ -13486,74 +13588,72 @@
       <c r="B163" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C163" s="34">
+      <c r="C163" s="29">
         <f>AVERAGE(C133:C162)</f>
         <v>104.8950614</v>
       </c>
-      <c r="D163" s="34">
+      <c r="D163" s="29">
         <f t="shared" ref="D163:I163" si="4">AVERAGE(D133:D162)</f>
         <v>108.52719036666667</v>
       </c>
-      <c r="E163" s="34">
+      <c r="E163" s="29">
         <f t="shared" si="4"/>
         <v>44.199893533333331</v>
       </c>
-      <c r="F163" s="35">
+      <c r="F163" s="30">
         <f t="shared" si="4"/>
         <v>53.490033199999992</v>
       </c>
-      <c r="G163" s="36">
+      <c r="G163" s="31">
         <f t="shared" si="4"/>
         <v>37.852071933333335</v>
       </c>
-      <c r="H163" s="36">
+      <c r="H163" s="31">
         <f t="shared" si="4"/>
         <v>52.928955033333331</v>
       </c>
-      <c r="I163" s="34" t="e">
+      <c r="I163" s="29" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L163" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="M163" s="34">
+      <c r="M163" s="29">
         <f t="shared" ref="M163" si="5">AVERAGE(M133:M162)</f>
         <v>851.83438566666678</v>
       </c>
-      <c r="N163" s="34">
+      <c r="N163" s="29">
         <f t="shared" ref="N163" si="6">AVERAGE(N133:N162)</f>
         <v>1184.7978266666664</v>
       </c>
-      <c r="O163" s="34">
+      <c r="O163" s="29">
         <f t="shared" ref="O163" si="7">AVERAGE(O133:O162)</f>
         <v>350.66859700000003</v>
       </c>
-      <c r="P163" s="35">
+      <c r="P163" s="30">
         <f t="shared" ref="P163:S163" si="8">AVERAGE(P133:P162)</f>
         <v>376.23463133333337</v>
       </c>
-      <c r="Q163" s="36">
+      <c r="Q163" s="31">
         <f t="shared" si="8"/>
         <v>333.37042033333341</v>
       </c>
-      <c r="R163" s="36">
+      <c r="R163" s="31">
         <f t="shared" si="8"/>
         <v>491.72026066666655</v>
       </c>
-      <c r="S163" s="34" t="e">
+      <c r="S163" s="29" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="L130:S130"/>
-    <mergeCell ref="L131:L132"/>
-    <mergeCell ref="M131:S131"/>
-    <mergeCell ref="B130:I130"/>
-    <mergeCell ref="B131:B132"/>
-    <mergeCell ref="C131:I131"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="C57:I57"/>
+    <mergeCell ref="B56:I56"/>
+    <mergeCell ref="B57:B58"/>
     <mergeCell ref="B93:I93"/>
     <mergeCell ref="B94:B95"/>
     <mergeCell ref="C94:I94"/>
@@ -13563,10 +13663,12 @@
     <mergeCell ref="L93:S93"/>
     <mergeCell ref="L94:L95"/>
     <mergeCell ref="M94:S94"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="C57:I57"/>
-    <mergeCell ref="B56:I56"/>
-    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="L130:S130"/>
+    <mergeCell ref="L131:L132"/>
+    <mergeCell ref="M131:S131"/>
+    <mergeCell ref="B130:I130"/>
+    <mergeCell ref="B131:B132"/>
+    <mergeCell ref="C131:I131"/>
   </mergeCells>
   <conditionalFormatting sqref="C89:I89">
     <cfRule type="colorScale" priority="6">
@@ -13650,7 +13752,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K379"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="K2" sqref="K2:K31"/>
     </sheetView>
   </sheetViews>
@@ -22513,4 +22615,684 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:M26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7:M11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="39" t="s">
+        <v>431</v>
+      </c>
+      <c r="C2" s="39" t="s">
+        <v>432</v>
+      </c>
+      <c r="D2" s="39" t="s">
+        <v>433</v>
+      </c>
+      <c r="E2" s="39" t="s">
+        <v>434</v>
+      </c>
+      <c r="G2" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" s="41" t="s">
+        <v>448</v>
+      </c>
+      <c r="M2" s="41" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="38" t="s">
+        <v>425</v>
+      </c>
+      <c r="C3" s="38">
+        <v>0</v>
+      </c>
+      <c r="D3" s="38">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="E3" s="38" t="s">
+        <v>425</v>
+      </c>
+      <c r="G3" s="38" t="s">
+        <v>425</v>
+      </c>
+      <c r="H3" s="38">
+        <v>717.93904390736895</v>
+      </c>
+      <c r="I3" s="38">
+        <v>2</v>
+      </c>
+      <c r="K3" s="38">
+        <v>1</v>
+      </c>
+      <c r="L3" s="42">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="M3" s="38">
+        <v>15032016</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="38" t="s">
+        <v>425</v>
+      </c>
+      <c r="C4" s="38">
+        <v>1</v>
+      </c>
+      <c r="D4" s="38">
+        <v>0.80451127819548796</v>
+      </c>
+      <c r="E4" s="38" t="s">
+        <v>425</v>
+      </c>
+      <c r="G4" s="38" t="s">
+        <v>178</v>
+      </c>
+      <c r="H4" s="38">
+        <v>681.48765203854202</v>
+      </c>
+      <c r="I4" s="38">
+        <v>2</v>
+      </c>
+      <c r="K4" s="38">
+        <v>2</v>
+      </c>
+      <c r="L4" s="38">
+        <v>0.25</v>
+      </c>
+      <c r="M4" s="38">
+        <v>15032016</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="38" t="s">
+        <v>425</v>
+      </c>
+      <c r="C5" s="38">
+        <v>2</v>
+      </c>
+      <c r="D5" s="38">
+        <v>0.80882352941176405</v>
+      </c>
+      <c r="E5" s="38" t="s">
+        <v>425</v>
+      </c>
+      <c r="G5" s="38" t="s">
+        <v>427</v>
+      </c>
+      <c r="H5" s="38">
+        <v>617.26912334789802</v>
+      </c>
+      <c r="I5" s="38">
+        <v>2</v>
+      </c>
+      <c r="K5" s="38">
+        <v>3</v>
+      </c>
+      <c r="L5" s="38">
+        <v>0.4</v>
+      </c>
+      <c r="M5" s="38">
+        <v>15032016</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="38" t="s">
+        <v>425</v>
+      </c>
+      <c r="C6" s="38">
+        <v>3</v>
+      </c>
+      <c r="D6" s="38">
+        <v>0.78321678321678301</v>
+      </c>
+      <c r="E6" s="38" t="s">
+        <v>425</v>
+      </c>
+      <c r="G6" s="38" t="s">
+        <v>428</v>
+      </c>
+      <c r="H6" s="38">
+        <v>481.57780863076903</v>
+      </c>
+      <c r="I6" s="38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="38" t="s">
+        <v>425</v>
+      </c>
+      <c r="C7" s="38">
+        <v>0</v>
+      </c>
+      <c r="D7" s="38">
+        <v>1.6666666666666601E-2</v>
+      </c>
+      <c r="E7" s="38" t="s">
+        <v>178</v>
+      </c>
+      <c r="G7" s="38" t="s">
+        <v>429</v>
+      </c>
+      <c r="H7" s="38">
+        <v>479.63342920954602</v>
+      </c>
+      <c r="I7" s="38">
+        <v>2</v>
+      </c>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40" t="s">
+        <v>417</v>
+      </c>
+      <c r="M7" s="40" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="38" t="s">
+        <v>425</v>
+      </c>
+      <c r="C8" s="38">
+        <v>1</v>
+      </c>
+      <c r="D8" s="38">
+        <v>6.01503759398496E-2</v>
+      </c>
+      <c r="E8" s="38" t="s">
+        <v>178</v>
+      </c>
+      <c r="G8" s="38" t="s">
+        <v>430</v>
+      </c>
+      <c r="H8" s="38">
+        <v>347.853201383711</v>
+      </c>
+      <c r="I8" s="38">
+        <v>2</v>
+      </c>
+      <c r="K8" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="L8" s="38" t="s">
+        <v>418</v>
+      </c>
+      <c r="M8" s="38">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="38" t="s">
+        <v>425</v>
+      </c>
+      <c r="C9" s="38">
+        <v>2</v>
+      </c>
+      <c r="D9" s="38">
+        <v>0</v>
+      </c>
+      <c r="E9" s="38" t="s">
+        <v>178</v>
+      </c>
+      <c r="G9" s="38" t="s">
+        <v>435</v>
+      </c>
+      <c r="H9" s="38">
+        <v>170.214619346245</v>
+      </c>
+      <c r="I9" s="38">
+        <v>3</v>
+      </c>
+      <c r="K9" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="L9" s="38" t="s">
+        <v>419</v>
+      </c>
+      <c r="M9" s="38">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="38" t="s">
+        <v>425</v>
+      </c>
+      <c r="C10" s="38">
+        <v>3</v>
+      </c>
+      <c r="D10" s="38">
+        <v>6.9930069930069894E-2</v>
+      </c>
+      <c r="E10" s="38" t="s">
+        <v>178</v>
+      </c>
+      <c r="G10" s="38" t="s">
+        <v>436</v>
+      </c>
+      <c r="H10" s="38">
+        <v>176.491243227517</v>
+      </c>
+      <c r="I10" s="38">
+        <v>2</v>
+      </c>
+      <c r="K10" s="40" t="s">
+        <v>414</v>
+      </c>
+      <c r="L10" s="38" t="s">
+        <v>419</v>
+      </c>
+      <c r="M10" s="38">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="38" t="s">
+        <v>425</v>
+      </c>
+      <c r="C11" s="38">
+        <v>0</v>
+      </c>
+      <c r="D11" s="38">
+        <v>0</v>
+      </c>
+      <c r="E11" s="38" t="s">
+        <v>427</v>
+      </c>
+      <c r="G11" s="38" t="s">
+        <v>437</v>
+      </c>
+      <c r="H11" s="38">
+        <v>103.19315741162001</v>
+      </c>
+      <c r="I11" s="38">
+        <v>0</v>
+      </c>
+      <c r="K11" s="40" t="s">
+        <v>415</v>
+      </c>
+      <c r="L11" s="38" t="s">
+        <v>420</v>
+      </c>
+      <c r="M11" s="38">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B12" s="38" t="s">
+        <v>425</v>
+      </c>
+      <c r="C12" s="38">
+        <v>1</v>
+      </c>
+      <c r="D12" s="38">
+        <v>0</v>
+      </c>
+      <c r="E12" s="38" t="s">
+        <v>427</v>
+      </c>
+      <c r="G12" s="38" t="s">
+        <v>438</v>
+      </c>
+      <c r="H12" s="38">
+        <v>-54.877286746170697</v>
+      </c>
+      <c r="I12" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B13" s="38" t="s">
+        <v>425</v>
+      </c>
+      <c r="C13" s="38">
+        <v>2</v>
+      </c>
+      <c r="D13" s="38">
+        <v>0</v>
+      </c>
+      <c r="E13" s="38" t="s">
+        <v>427</v>
+      </c>
+      <c r="G13" s="38" t="s">
+        <v>439</v>
+      </c>
+      <c r="H13" s="38">
+        <v>-47.7631479051824</v>
+      </c>
+      <c r="I13" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B14" s="38" t="s">
+        <v>425</v>
+      </c>
+      <c r="C14" s="38">
+        <v>3</v>
+      </c>
+      <c r="D14" s="38">
+        <v>0</v>
+      </c>
+      <c r="E14" s="38" t="s">
+        <v>427</v>
+      </c>
+      <c r="G14" s="38" t="s">
+        <v>426</v>
+      </c>
+      <c r="H14" s="38">
+        <v>676.84458012997698</v>
+      </c>
+      <c r="I14" s="38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B15" s="38" t="s">
+        <v>425</v>
+      </c>
+      <c r="C15" s="38">
+        <v>0</v>
+      </c>
+      <c r="D15" s="38">
+        <v>0</v>
+      </c>
+      <c r="E15" s="38" t="s">
+        <v>428</v>
+      </c>
+      <c r="G15" s="38" t="s">
+        <v>440</v>
+      </c>
+      <c r="H15" s="38">
+        <v>633.33888683468797</v>
+      </c>
+      <c r="I15" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B16" s="38" t="s">
+        <v>425</v>
+      </c>
+      <c r="C16" s="38">
+        <v>1</v>
+      </c>
+      <c r="D16" s="38">
+        <v>0</v>
+      </c>
+      <c r="E16" s="38" t="s">
+        <v>428</v>
+      </c>
+      <c r="G16" s="38" t="s">
+        <v>114</v>
+      </c>
+      <c r="H16" s="38">
+        <v>664.45635759911397</v>
+      </c>
+      <c r="I16" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B17" s="38" t="s">
+        <v>425</v>
+      </c>
+      <c r="C17" s="38">
+        <v>2</v>
+      </c>
+      <c r="D17" s="38">
+        <v>0</v>
+      </c>
+      <c r="E17" s="38" t="s">
+        <v>428</v>
+      </c>
+      <c r="G17" s="38" t="s">
+        <v>441</v>
+      </c>
+      <c r="H17" s="38">
+        <v>584.455822270613</v>
+      </c>
+      <c r="I17" s="38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B18" s="38" t="s">
+        <v>425</v>
+      </c>
+      <c r="C18" s="38">
+        <v>3</v>
+      </c>
+      <c r="D18" s="38">
+        <v>0</v>
+      </c>
+      <c r="E18" s="38" t="s">
+        <v>428</v>
+      </c>
+      <c r="G18" s="38" t="s">
+        <v>177</v>
+      </c>
+      <c r="H18" s="38">
+        <v>595.96043426784297</v>
+      </c>
+      <c r="I18" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B19" s="37" t="s">
+        <v>425</v>
+      </c>
+      <c r="C19" s="37">
+        <v>0</v>
+      </c>
+      <c r="D19" s="37">
+        <v>0</v>
+      </c>
+      <c r="E19" s="37" t="s">
+        <v>429</v>
+      </c>
+      <c r="G19" s="37" t="s">
+        <v>442</v>
+      </c>
+      <c r="H19" s="37">
+        <v>589.04242959659302</v>
+      </c>
+      <c r="I19" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B20" s="37" t="s">
+        <v>425</v>
+      </c>
+      <c r="C20" s="37">
+        <v>1</v>
+      </c>
+      <c r="D20" s="37">
+        <v>0</v>
+      </c>
+      <c r="E20" s="37" t="s">
+        <v>429</v>
+      </c>
+      <c r="G20" s="37" t="s">
+        <v>443</v>
+      </c>
+      <c r="H20" s="37">
+        <v>487.49556022823202</v>
+      </c>
+      <c r="I20" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B21" s="37" t="s">
+        <v>425</v>
+      </c>
+      <c r="C21" s="37">
+        <v>2</v>
+      </c>
+      <c r="D21" s="37">
+        <v>0</v>
+      </c>
+      <c r="E21" s="37" t="s">
+        <v>429</v>
+      </c>
+      <c r="G21" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="H21" s="37">
+        <v>585.34141692763899</v>
+      </c>
+      <c r="I21" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B22" s="37" t="s">
+        <v>425</v>
+      </c>
+      <c r="C22" s="37">
+        <v>3</v>
+      </c>
+      <c r="D22" s="37">
+        <v>0</v>
+      </c>
+      <c r="E22" s="37" t="s">
+        <v>429</v>
+      </c>
+      <c r="G22" s="37" t="s">
+        <v>444</v>
+      </c>
+      <c r="H22" s="37">
+        <v>526.36439084105905</v>
+      </c>
+      <c r="I22" s="37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B23" s="37" t="s">
+        <v>425</v>
+      </c>
+      <c r="C23" s="37">
+        <v>0</v>
+      </c>
+      <c r="D23" s="37">
+        <v>0</v>
+      </c>
+      <c r="E23" s="37" t="s">
+        <v>430</v>
+      </c>
+      <c r="G23" s="37" t="s">
+        <v>445</v>
+      </c>
+      <c r="H23" s="37">
+        <v>682.19978034574103</v>
+      </c>
+      <c r="I23" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B24" s="37" t="s">
+        <v>425</v>
+      </c>
+      <c r="C24" s="37">
+        <v>1</v>
+      </c>
+      <c r="D24" s="37">
+        <v>0</v>
+      </c>
+      <c r="E24" s="37" t="s">
+        <v>430</v>
+      </c>
+      <c r="G24" s="37" t="s">
+        <v>446</v>
+      </c>
+      <c r="H24" s="37">
+        <v>633.97980231116696</v>
+      </c>
+      <c r="I24" s="37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B25" s="37" t="s">
+        <v>425</v>
+      </c>
+      <c r="C25" s="37">
+        <v>2</v>
+      </c>
+      <c r="D25" s="37">
+        <v>0</v>
+      </c>
+      <c r="E25" s="37" t="s">
+        <v>430</v>
+      </c>
+      <c r="G25" s="37" t="s">
+        <v>447</v>
+      </c>
+      <c r="H25" s="37">
+        <v>529.12522002542096</v>
+      </c>
+      <c r="I25" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B26" s="37" t="s">
+        <v>425</v>
+      </c>
+      <c r="C26" s="37">
+        <v>3</v>
+      </c>
+      <c r="D26" s="37">
+        <v>0</v>
+      </c>
+      <c r="E26" s="37" t="s">
+        <v>430</v>
+      </c>
+      <c r="G26" s="37" t="s">
+        <v>106</v>
+      </c>
+      <c r="H26" s="37">
+        <v>520.08719028779797</v>
+      </c>
+      <c r="I26" s="37">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>